--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lists of all tables" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9666" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="2133">
   <si>
     <t>new TMS</t>
   </si>
@@ -6485,6 +6485,12 @@
     <t>t_m_s_tenant_profiles_x_charges</t>
   </si>
   <si>
+    <t>CASE
+        WHEN deleted = 0 THEN 10
+        WHEN deleted = 1 THEN 20
+    END AS `status`</t>
+  </si>
+  <si>
     <t>NEW TMS TABLE</t>
   </si>
   <si>
@@ -6605,10 +6611,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -7132,16 +7138,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7274,7 +7280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7316,6 +7322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -7613,6 +7622,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8037,19 +8053,19 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8238,7 +8254,7 @@
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
@@ -8332,7 +8348,7 @@
       <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J16" t="s">
@@ -8427,7 +8443,7 @@
       <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J20" t="s">
@@ -8464,7 +8480,7 @@
       <c r="H22" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J22" t="s">
@@ -9921,10 +9937,10 @@
   <sheetPr/>
   <dimension ref="B1:DT37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="CN1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="CY1" sqref="CY1"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -15191,10 +15207,10 @@
   <sheetPr/>
   <dimension ref="B2:ET2922"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="BD1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BP2" sqref="BP2"/>
+      <selection pane="bottomLeft" activeCell="AE9" sqref="AE2:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -60885,10 +60901,10 @@
   <sheetPr/>
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E319" sqref="E319"/>
+      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -63370,6 +63386,202 @@
       </c>
     </row>
     <row r="339" customHeight="1"/>
+    <row r="342" spans="2:3">
+      <c r="B342" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="B345" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7">
+      <c r="B346" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6">
+      <c r="B347" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F347" s="5"/>
+    </row>
+    <row r="348" ht="60" spans="2:7">
+      <c r="B348" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G348" s="14" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7">
+      <c r="B349" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7">
+      <c r="B353" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6">
+      <c r="B354" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="F354" s="5"/>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="357" ht="60" spans="2:7">
+      <c r="B357" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G357" s="14" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6">
+      <c r="B359" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F359" s="5"/>
+    </row>
     <row r="368" ht="16" customHeight="1"/>
     <row r="413" ht="17" customHeight="1"/>
     <row r="431" ht="17" customHeight="1"/>
@@ -63389,7 +63601,7 @@
   <sheetPr/>
   <dimension ref="B1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -63408,17 +63620,17 @@
   <sheetData>
     <row r="1" ht="18.75" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:7">
@@ -63519,7 +63731,7 @@
         <v>690</v>
       </c>
       <c r="C11" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="G11" t="s">
         <v>1239</v>
@@ -63676,7 +63888,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:7">
       <c r="B31" s="2" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>171</v>
@@ -63715,7 +63927,7 @@
         <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="G34" t="s">
         <v>1260</v>
@@ -63795,7 +64007,7 @@
         <v>293</v>
       </c>
       <c r="C44" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="G44" t="s">
         <v>1790</v>
@@ -63937,7 +64149,7 @@
         <v>384</v>
       </c>
       <c r="C61" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="F61" t="s">
         <v>975</v>
@@ -64028,7 +64240,7 @@
         <v>709</v>
       </c>
       <c r="C69" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="F69" t="s">
         <v>1411</v>
@@ -64072,7 +64284,7 @@
         <v>188</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>188</v>
@@ -64255,7 +64467,7 @@
         <v>127</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>127</v>
@@ -64283,7 +64495,7 @@
         <v>384</v>
       </c>
       <c r="C99" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="F99" t="s">
         <v>1137</v>
@@ -64426,7 +64638,7 @@
         <v>125</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>125</v>
@@ -64451,7 +64663,7 @@
         <v>1317</v>
       </c>
       <c r="F117" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:6">
@@ -64470,7 +64682,7 @@
         <v>475</v>
       </c>
       <c r="C119" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="F119" t="s">
         <v>962</v>
@@ -64578,7 +64790,7 @@
         <v>94</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>94</v>
@@ -64988,7 +65200,7 @@
         <v>387</v>
       </c>
       <c r="C193" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F193" t="s">
         <v>1023</v>
@@ -65007,7 +65219,7 @@
         <v>475</v>
       </c>
       <c r="C195" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F195" t="s">
         <v>1149</v>
@@ -65196,7 +65408,7 @@
     </row>
     <row r="216" customHeight="1" spans="2:6">
       <c r="B216" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F216" t="s">
         <v>876</v>
@@ -65391,7 +65603,7 @@
         <v>387</v>
       </c>
       <c r="C243" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F243" t="s">
         <v>892</v>
@@ -65470,7 +65682,7 @@
         <v>475</v>
       </c>
       <c r="C251" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="F251" t="s">
         <v>1067</v>
@@ -65577,7 +65789,7 @@
         <v>387</v>
       </c>
       <c r="C267" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F267" t="s">
         <v>897</v>
@@ -65607,7 +65819,7 @@
         <v>450</v>
       </c>
       <c r="C270" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F270" t="s">
         <v>896</v>
@@ -65709,7 +65921,7 @@
         <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F282" t="s">
         <v>1510</v>
@@ -65739,7 +65951,7 @@
         <v>450</v>
       </c>
       <c r="C285" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F285" t="s">
         <v>1260</v>
@@ -65841,7 +66053,7 @@
         <v>387</v>
       </c>
       <c r="C297" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F297" t="s">
         <v>1706</v>
@@ -65871,7 +66083,7 @@
         <v>450</v>
       </c>
       <c r="C300" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F300" t="s">
         <v>1147</v>
@@ -65949,7 +66161,7 @@
         <v>387</v>
       </c>
       <c r="C312" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="313" spans="2:2">
@@ -65970,7 +66182,7 @@
         <v>450</v>
       </c>
       <c r="C315" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="316" spans="2:3">
@@ -66030,7 +66242,7 @@
         <v>387</v>
       </c>
       <c r="C327" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="328" spans="2:2">
@@ -66051,7 +66263,7 @@
         <v>450</v>
       </c>
       <c r="C330" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="331" spans="2:3">
@@ -66112,22 +66324,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
   </sheetData>

--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="lists of all tables" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="2133">
   <si>
     <t>new TMS</t>
   </si>
@@ -132,277 +132,283 @@
     <t>t_m_s_clients</t>
   </si>
   <si>
+    <t>tenantaccountfile</t>
+  </si>
+  <si>
+    <t>business_units</t>
+  </si>
+  <si>
+    <t>amendparticularsfile</t>
+  </si>
+  <si>
+    <t>chargesfile</t>
+  </si>
+  <si>
+    <t>t_m_s_tenant_types</t>
+  </si>
+  <si>
+    <t>tenanttypefile</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>amendpayschedulefile</t>
+  </si>
+  <si>
+    <t>clausesfile</t>
+  </si>
+  <si>
+    <t>t_m_s_business_categories</t>
+  </si>
+  <si>
+    <t>businesscategoryfile</t>
+  </si>
+  <si>
+    <t>amendrentalchargesfile</t>
+  </si>
+  <si>
+    <t>clientofferfile</t>
+  </si>
+  <si>
+    <t>t_m_s_rental_schemes</t>
+  </si>
+  <si>
+    <t>rentalschemefile</t>
+  </si>
+  <si>
+    <t>e_b_m_authorized_signatories</t>
+  </si>
+  <si>
+    <t>approveby</t>
+  </si>
+  <si>
+    <t>clienttypefile</t>
+  </si>
+  <si>
+    <t>t_m_s_charges</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>e_b_m_billing_terms</t>
+  </si>
+  <si>
+    <t>ar1</t>
+  </si>
+  <si>
+    <t>doctypefile</t>
+  </si>
+  <si>
+    <t>e_b_m_event_types</t>
+  </si>
+  <si>
+    <t>ar2</t>
+  </si>
+  <si>
+    <t>documentfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events</t>
+  </si>
+  <si>
+    <t>at_copy</t>
+  </si>
+  <si>
+    <t>epfdoctypefile</t>
+  </si>
+  <si>
+    <t>SYSTEM SETUP - OPERATION</t>
+  </si>
+  <si>
+    <t>t_m_s_preconstruction_requirements</t>
+  </si>
+  <si>
+    <t>preconstructionfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_amendment</t>
+  </si>
+  <si>
+    <t>epftypefile</t>
+  </si>
+  <si>
+    <t>t_m_s_preoperational_requirements</t>
+  </si>
+  <si>
+    <t>preoperationfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_amendment_information</t>
+  </si>
+  <si>
+    <t>aur_sig</t>
+  </si>
+  <si>
+    <t>eventclassfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_epf_information</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>eventfile</t>
+  </si>
+  <si>
+    <t>t_m_s_provisions</t>
+  </si>
+  <si>
+    <t>provisionsfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_ingress_egress</t>
+  </si>
+  <si>
+    <t>bankfile</t>
+  </si>
+  <si>
+    <t>eventperiodcoveredfile</t>
+  </si>
+  <si>
+    <t>t_m_s_meters</t>
+  </si>
+  <si>
+    <t>meterfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_moa_information</t>
+  </si>
+  <si>
+    <t>eventschedulefile</t>
+  </si>
+  <si>
+    <t>t_m_s_operational_hours</t>
+  </si>
+  <si>
+    <t>operationhoursfile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_other_services</t>
+  </si>
+  <si>
+    <t>branchfloorlevelfile</t>
+  </si>
+  <si>
+    <t>eventtypefile</t>
+  </si>
+  <si>
+    <t>e_b_m_events_rental_costs</t>
+  </si>
+  <si>
+    <t>facilitiesfile</t>
+  </si>
+  <si>
+    <t>e_b_m_locations</t>
+  </si>
+  <si>
+    <t>ingressandegressfile</t>
+  </si>
+  <si>
+    <t>SYSTEM SETUP - ACCOUNTING</t>
+  </si>
+  <si>
+    <t>e_b_m_moa_other_details</t>
+  </si>
+  <si>
+    <t>chargestagfile</t>
+  </si>
+  <si>
+    <t>liabilitiesfile</t>
+  </si>
+  <si>
+    <t>t_m_s_tenant_privileges</t>
+  </si>
+  <si>
+    <t>e_b_m_moa_promotions</t>
+  </si>
+  <si>
+    <t>checkby</t>
+  </si>
+  <si>
+    <t>e_b_m_moa_services</t>
+  </si>
+  <si>
+    <t>logisticsfile</t>
+  </si>
+  <si>
+    <t>e_b_m_notary_details</t>
+  </si>
+  <si>
+    <t>clearancefile</t>
+  </si>
+  <si>
+    <t>moaamendeventschedulefile</t>
+  </si>
+  <si>
+    <t>e_b_m_organizers</t>
+  </si>
+  <si>
+    <t>moaamendmentfile</t>
+  </si>
+  <si>
+    <t>e_b_m_payment_statuses</t>
+  </si>
+  <si>
+    <t>clientofferhistoryfile</t>
+  </si>
+  <si>
+    <t>moaamendparticularsfile</t>
+  </si>
+  <si>
+    <t>LEASING</t>
+  </si>
+  <si>
+    <t>t_m_s_award_notices</t>
+  </si>
+  <si>
+    <t>e_b_m_rental_schemes</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>moaamendperiodcoveredfile</t>
+  </si>
+  <si>
+    <t>t_m_s_contracts</t>
+  </si>
+  <si>
+    <t>e_b_m_transaction_types</t>
+  </si>
+  <si>
+    <t>cmdmextfile</t>
+  </si>
+  <si>
+    <t>moaamendrepresentativefile</t>
+  </si>
+  <si>
+    <t>Sub-table</t>
+  </si>
+  <si>
+    <t>contractrenewalfile</t>
+  </si>
+  <si>
+    <t>failed_jobs</t>
+  </si>
+  <si>
+    <t>cmdmfile</t>
+  </si>
+  <si>
+    <t>moacancellationfile</t>
+  </si>
+  <si>
+    <t>fisher_announcements</t>
+  </si>
+  <si>
     <t>companyaccountfile</t>
-  </si>
-  <si>
-    <t>business_units</t>
-  </si>
-  <si>
-    <t>amendparticularsfile</t>
-  </si>
-  <si>
-    <t>chargesfile</t>
-  </si>
-  <si>
-    <t>t_m_s_tenant_types</t>
-  </si>
-  <si>
-    <t>tenanttypefile</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>amendpayschedulefile</t>
-  </si>
-  <si>
-    <t>clausesfile</t>
-  </si>
-  <si>
-    <t>t_m_s_business_categories</t>
-  </si>
-  <si>
-    <t>businesscategoryfile</t>
-  </si>
-  <si>
-    <t>amendrentalchargesfile</t>
-  </si>
-  <si>
-    <t>clientofferfile</t>
-  </si>
-  <si>
-    <t>t_m_s_rental_schemes</t>
-  </si>
-  <si>
-    <t>rentalschemefile</t>
-  </si>
-  <si>
-    <t>e_b_m_authorized_signatories</t>
-  </si>
-  <si>
-    <t>approveby</t>
-  </si>
-  <si>
-    <t>clienttypefile</t>
-  </si>
-  <si>
-    <t>t_m_s_charges</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>e_b_m_billing_terms</t>
-  </si>
-  <si>
-    <t>ar1</t>
-  </si>
-  <si>
-    <t>doctypefile</t>
-  </si>
-  <si>
-    <t>e_b_m_event_types</t>
-  </si>
-  <si>
-    <t>ar2</t>
-  </si>
-  <si>
-    <t>documentfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events</t>
-  </si>
-  <si>
-    <t>at_copy</t>
-  </si>
-  <si>
-    <t>epfdoctypefile</t>
-  </si>
-  <si>
-    <t>SYSTEM SETUP - OPERATION</t>
-  </si>
-  <si>
-    <t>t_m_s_preconstruction_requirements</t>
-  </si>
-  <si>
-    <t>preconstructionfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_amendment</t>
-  </si>
-  <si>
-    <t>epftypefile</t>
-  </si>
-  <si>
-    <t>t_m_s_preoperational_requirements</t>
-  </si>
-  <si>
-    <t>preoperationfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_amendment_information</t>
-  </si>
-  <si>
-    <t>aur_sig</t>
-  </si>
-  <si>
-    <t>eventclassfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_epf_information</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>eventfile</t>
-  </si>
-  <si>
-    <t>t_m_s_provisions</t>
-  </si>
-  <si>
-    <t>provisionsfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_ingress_egress</t>
-  </si>
-  <si>
-    <t>bankfile</t>
-  </si>
-  <si>
-    <t>eventperiodcoveredfile</t>
-  </si>
-  <si>
-    <t>t_m_s_meters</t>
-  </si>
-  <si>
-    <t>meterfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_moa_information</t>
-  </si>
-  <si>
-    <t>eventschedulefile</t>
-  </si>
-  <si>
-    <t>t_m_s_operational_hours</t>
-  </si>
-  <si>
-    <t>operationhoursfile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_other_services</t>
-  </si>
-  <si>
-    <t>branchfloorlevelfile</t>
-  </si>
-  <si>
-    <t>eventtypefile</t>
-  </si>
-  <si>
-    <t>e_b_m_events_rental_costs</t>
-  </si>
-  <si>
-    <t>facilitiesfile</t>
-  </si>
-  <si>
-    <t>e_b_m_locations</t>
-  </si>
-  <si>
-    <t>ingressandegressfile</t>
-  </si>
-  <si>
-    <t>SYSTEM SETUP - ACCOUNTING</t>
-  </si>
-  <si>
-    <t>e_b_m_moa_other_details</t>
-  </si>
-  <si>
-    <t>chargestagfile</t>
-  </si>
-  <si>
-    <t>liabilitiesfile</t>
-  </si>
-  <si>
-    <t>t_m_s_tenant_privileges</t>
-  </si>
-  <si>
-    <t>e_b_m_moa_promotions</t>
-  </si>
-  <si>
-    <t>checkby</t>
-  </si>
-  <si>
-    <t>e_b_m_moa_services</t>
-  </si>
-  <si>
-    <t>logisticsfile</t>
-  </si>
-  <si>
-    <t>e_b_m_notary_details</t>
-  </si>
-  <si>
-    <t>clearancefile</t>
-  </si>
-  <si>
-    <t>moaamendeventschedulefile</t>
-  </si>
-  <si>
-    <t>e_b_m_organizers</t>
-  </si>
-  <si>
-    <t>moaamendmentfile</t>
-  </si>
-  <si>
-    <t>e_b_m_payment_statuses</t>
-  </si>
-  <si>
-    <t>clientofferhistoryfile</t>
-  </si>
-  <si>
-    <t>moaamendparticularsfile</t>
-  </si>
-  <si>
-    <t>t_m_s_award_notices</t>
-  </si>
-  <si>
-    <t>e_b_m_rental_schemes</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>moaamendperiodcoveredfile</t>
-  </si>
-  <si>
-    <t>t_m_s_contracts</t>
-  </si>
-  <si>
-    <t>e_b_m_transaction_types</t>
-  </si>
-  <si>
-    <t>cmdmextfile</t>
-  </si>
-  <si>
-    <t>moaamendrepresentativefile</t>
-  </si>
-  <si>
-    <t>Sub-table</t>
-  </si>
-  <si>
-    <t>contractrenewalfile</t>
-  </si>
-  <si>
-    <t>failed_jobs</t>
-  </si>
-  <si>
-    <t>cmdmfile</t>
-  </si>
-  <si>
-    <t>moacancellationfile</t>
-  </si>
-  <si>
-    <t>fisher_announcements</t>
   </si>
   <si>
     <t>moacateringfile</t>
@@ -753,9 +759,6 @@
     <t>modulefile</t>
   </si>
   <si>
-    <t>tenantaccountfile</t>
-  </si>
-  <si>
     <t>t_m_s_meter_type_rates</t>
   </si>
   <si>
@@ -1099,9 +1102,6 @@
   </si>
   <si>
     <t>SYSTEM SETUP - TREASURY</t>
-  </si>
-  <si>
-    <t>LEASING</t>
   </si>
   <si>
     <t>OPERATION</t>
@@ -7280,7 +7280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7330,6 +7330,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -7677,48 +7680,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>407035</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>407035</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181610</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20556855" y="324485"/>
-          <a:ext cx="1828800" cy="4048125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -7738,7 +7699,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7747,6 +7708,90 @@
         <a:xfrm>
           <a:off x="22588220" y="4505325"/>
           <a:ext cx="2514600" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>356870</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20411440" y="425450"/>
+          <a:ext cx="1924050" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20422870" y="4381500"/>
+          <a:ext cx="1257300" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8022,8 +8067,8 @@
   <sheetPr/>
   <dimension ref="A2:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55:I62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8168,7 +8213,7 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8254,7 +8299,7 @@
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="18" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
@@ -8348,7 +8393,7 @@
       <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="18" t="s">
         <v>50</v>
       </c>
       <c r="J16" t="s">
@@ -8443,7 +8488,7 @@
       <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="18" t="s">
         <v>50</v>
       </c>
       <c r="J20" t="s">
@@ -8480,7 +8525,7 @@
       <c r="H22" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="18" t="s">
         <v>50</v>
       </c>
       <c r="J22" t="s">
@@ -8568,10 +8613,10 @@
         <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
@@ -8582,16 +8627,16 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
@@ -8599,19 +8644,19 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s">
         <v>51</v>
@@ -8619,47 +8664,47 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -8667,35 +8712,35 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -8703,16 +8748,16 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
@@ -8720,16 +8765,16 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s">
         <v>28</v>
@@ -8743,10 +8788,10 @@
         <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s">
         <v>34</v>
@@ -8754,16 +8799,16 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s">
         <v>39</v>
@@ -8771,13 +8816,13 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K41" t="s">
         <v>43</v>
@@ -8785,224 +8830,224 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:13">
       <c r="B49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="2:13">
       <c r="B52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" t="s">
+        <v>202</v>
+      </c>
+      <c r="K55" t="s">
         <v>197</v>
-      </c>
-      <c r="D55" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" t="s">
-        <v>199</v>
-      </c>
-      <c r="I55" t="s">
-        <v>200</v>
-      </c>
-      <c r="K55" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -9010,13 +9055,13 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K57" t="s">
         <v>80</v>
@@ -9027,16 +9072,16 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -9044,136 +9089,136 @@
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="2:12">
       <c r="B66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K66" t="s">
         <v>94</v>
       </c>
       <c r="L66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="2:12">
       <c r="B67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D67" t="s">
         <v>84</v>
       </c>
       <c r="I67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="2:12">
       <c r="B68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L68" t="s">
         <v>80</v>
@@ -9181,77 +9226,77 @@
     </row>
     <row r="69" spans="2:12">
       <c r="B69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:12">
       <c r="B72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L72" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L74" t="s">
         <v>46</v>
@@ -9259,26 +9304,26 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -9286,59 +9331,59 @@
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -9346,23 +9391,23 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D86" t="s">
         <v>63</v>
@@ -9370,7 +9415,7 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
         <v>67</v>
@@ -9378,10 +9423,10 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -9389,7 +9434,7 @@
         <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -9400,7 +9445,7 @@
         <v>75</v>
       </c>
       <c r="I90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -9408,15 +9453,15 @@
         <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -9424,48 +9469,48 @@
         <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="2:12">
       <c r="B94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
@@ -9473,48 +9518,48 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="2:12">
       <c r="B100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -9522,95 +9567,95 @@
         <v>96</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D114" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="2:4">
@@ -9618,25 +9663,25 @@
         <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="4:4">
@@ -9646,162 +9691,162 @@
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -9878,7 +9923,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -9898,17 +9943,17 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>337</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="3:3">
@@ -9937,10 +9982,10 @@
   <sheetPr/>
   <dimension ref="B1:DT37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="CH1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H1:H8"/>
+      <selection pane="bottomLeft" activeCell="CN1" sqref="CN1:CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -10150,19 +10195,19 @@
         <v>106</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG1" s="10" t="s">
         <v>22</v>
@@ -10171,67 +10216,67 @@
         <v>18</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AS1" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AU1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AV1" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW1" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AY1" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AZ1" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BA1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BC1" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BD1" s="10" t="s">
         <v>41</v>
@@ -10243,91 +10288,91 @@
         <v>31</v>
       </c>
       <c r="BG1" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BH1" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BI1" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BJ1" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BK1" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BL1" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BM1" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BN1" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BO1" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BP1" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BQ1" s="10" t="s">
         <v>79</v>
       </c>
       <c r="BR1" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BT1" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BU1" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BV1" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BW1" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BX1" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BY1" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BZ1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="CA1" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="CB1" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC1" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="CD1" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="CE1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="CF1" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="CD1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="CE1" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF1" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="CG1" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CH1" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="CI1" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="CJ1" s="10" t="s">
         <v>62</v>
@@ -10339,79 +10384,79 @@
         <v>74</v>
       </c>
       <c r="CM1" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CN1" s="10" t="s">
         <v>45</v>
       </c>
       <c r="CO1" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="CP1" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CQ1" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CR1" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="CS1" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="CT1" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="CS1" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="CU1" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CV1" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="CW1" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CX1" s="10" t="s">
         <v>96</v>
       </c>
       <c r="CY1" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CZ1" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="DA1" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="DB1" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="DC1" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="DD1" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DE1" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="DF1" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="DG1" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="DH1" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="DI1" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="DJ1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="DK1" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="DL1" s="10" t="s">
         <v>341</v>
@@ -15207,10 +15252,10 @@
   <sheetPr/>
   <dimension ref="B2:ET2922"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="U1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="CH1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE9" sqref="AE2:AE9"/>
+      <selection pane="bottomLeft" activeCell="CR2" sqref="CR2:CR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -15438,175 +15483,175 @@
         <v>107</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL2" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AS2" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AY2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BA2" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BB2" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BC2" s="10" t="s">
         <v>80</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BE2" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BF2" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="BG2" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BI2" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BJ2" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BK2" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BL2" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BM2" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BN2" s="10" t="s">
         <v>84</v>
       </c>
       <c r="BO2" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BQ2" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BR2" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BS2" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BT2" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BU2" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BV2" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BW2" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BX2" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BY2" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BZ2" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CA2" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CB2" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="CD2" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CE2" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CF2" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CG2" s="10" t="s">
         <v>63</v>
@@ -15615,196 +15660,196 @@
         <v>67</v>
       </c>
       <c r="CI2" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CJ2" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="CK2" s="10" t="s">
         <v>75</v>
       </c>
       <c r="CL2" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CM2" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="CN2" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CO2" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="CP2" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CQ2" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CR2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="CS2" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="CT2" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CU2" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="CV2" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="CW2" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CX2" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CY2" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="CZ2" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="DA2" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DB2" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DC2" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="DD2" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="DE2" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF2" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="DG2" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="DH2" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="DI2" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="DJ2" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="DK2" s="10" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="DL2" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="DM2" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="DN2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="DO2" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="DP2" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="DQ2" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="DR2" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="DS2" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DT2" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="DU2" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="DV2" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="DW2" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DX2" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="DY2" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="DZ2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="EC2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="ED2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="EE2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="EF2" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="EG2" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="EH2" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="DZ2" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="EA2" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="EB2" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="EC2" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="ED2" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="EE2" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="EF2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="EG2" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="EH2" s="10" t="s">
-        <v>317</v>
-      </c>
       <c r="EI2" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="EJ2" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EK2" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="EL2" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="EM2" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="EN2" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="EO2" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EP2" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EQ2" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="ER2" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="ES2" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="ET2" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="2:150">
@@ -18936,7 +18981,7 @@
       </c>
       <c r="CA10" s="5"/>
       <c r="CB10" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CC10" s="5"/>
       <c r="CD10" s="5"/>
@@ -19861,7 +19906,7 @@
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BM13" s="5"/>
       <c r="BN13" s="5" t="s">
@@ -20154,7 +20199,7 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
       <c r="BL14" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM14" s="5"/>
       <c r="BN14" s="5" t="s">
@@ -20190,7 +20235,7 @@
       </c>
       <c r="CA14" s="5"/>
       <c r="CB14" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CC14" s="5"/>
       <c r="CD14" s="5"/>
@@ -21966,7 +22011,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>1543</v>
@@ -22575,7 +22620,7 @@
         <v>896</v>
       </c>
       <c r="BR23" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BS23" s="5"/>
       <c r="BT23" s="5" t="s">
@@ -22638,7 +22683,7 @@
       <c r="DC23" s="5"/>
       <c r="DD23" s="5"/>
       <c r="DE23" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DF23" s="5"/>
       <c r="DG23" s="5"/>
@@ -23084,7 +23129,7 @@
         <v>1608</v>
       </c>
       <c r="CM25" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CN25" s="5"/>
       <c r="CO25" s="5"/>
@@ -23898,7 +23943,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
@@ -24729,7 +24774,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>945</v>
@@ -24949,7 +24994,7 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
@@ -25148,7 +25193,7 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
       <c r="AM35" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
@@ -25175,7 +25220,7 @@
       <c r="BF35" s="5"/>
       <c r="BG35" s="5"/>
       <c r="BH35" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
@@ -34824,7 +34869,7 @@
         <v>1803</v>
       </c>
       <c r="AA93" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -43491,7 +43536,7 @@
     </row>
     <row r="478" spans="2:2">
       <c r="B478" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="479" spans="2:2">
@@ -44471,7 +44516,7 @@
     </row>
     <row r="675" spans="2:2">
       <c r="B675" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="676" spans="2:2">
@@ -45066,7 +45111,7 @@
     </row>
     <row r="800" spans="2:2">
       <c r="B800" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="801" spans="2:2">
@@ -45886,12 +45931,12 @@
     </row>
     <row r="970" spans="2:2">
       <c r="B970" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="971" spans="2:2">
       <c r="B971" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="972" spans="2:2">
@@ -47866,7 +47911,7 @@
     </row>
     <row r="1387" spans="2:2">
       <c r="B1387" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1388" spans="2:2">
@@ -48131,12 +48176,12 @@
     </row>
     <row r="1444" spans="2:2">
       <c r="B1444" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1445" spans="2:2">
       <c r="B1445" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1446" spans="2:2">
@@ -48796,7 +48841,7 @@
     </row>
     <row r="1583" spans="2:2">
       <c r="B1583" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1584" spans="2:2">
@@ -49961,7 +50006,7 @@
     </row>
     <row r="1826" spans="2:2">
       <c r="B1826" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1827" spans="2:2">
@@ -49981,7 +50026,7 @@
     </row>
     <row r="1830" spans="2:2">
       <c r="B1830" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1831" spans="2:2">
@@ -50576,7 +50621,7 @@
     </row>
     <row r="1960" spans="2:2">
       <c r="B1960" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1961" spans="2:2">
@@ -52271,7 +52316,7 @@
     </row>
     <row r="2317" spans="2:2">
       <c r="B2317" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2318" spans="2:2">
@@ -55261,115 +55306,115 @@
         <v>108</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AS2" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY2" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BA2" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BB2" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BE2" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BF2" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="BG2" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BI2" s="10" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="BJ2" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BK2" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BL2" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -57233,7 +57278,7 @@
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -58587,7 +58632,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -59183,7 +59228,7 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
@@ -59667,7 +59712,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -60057,7 +60102,7 @@
       <c r="AV56" s="5"/>
       <c r="AW56" s="5"/>
       <c r="AX56" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AY56" s="5"/>
       <c r="AZ56" s="5"/>
@@ -60721,7 +60766,7 @@
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
@@ -60901,10 +60946,10 @@
   <sheetPr/>
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -61330,7 +61375,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>2101</v>
@@ -61886,7 +61931,7 @@
         <v>345</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="2:3">
@@ -62032,7 +62077,7 @@
     </row>
     <row r="159" spans="2:3">
       <c r="B159" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>44</v>
@@ -62376,7 +62421,7 @@
         <v>436</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="2:6">
@@ -62434,7 +62479,7 @@
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>1349</v>
@@ -62970,7 +63015,7 @@
     </row>
     <row r="265" spans="3:3">
       <c r="C265" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="3:3">
@@ -63125,16 +63170,16 @@
     </row>
     <row r="299" spans="2:14">
       <c r="B299" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M299" s="3" t="s">
         <v>2106</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="300" customHeight="1" spans="2:13">
@@ -63342,7 +63387,7 @@
     </row>
     <row r="327" spans="3:3">
       <c r="C327" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="328" spans="3:3">
@@ -63463,7 +63508,7 @@
       <c r="F348" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G348" s="14" t="s">
+      <c r="G348" s="6" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -63491,7 +63536,7 @@
         <v>38</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="353" spans="2:7">
@@ -63555,7 +63600,7 @@
       <c r="F357" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G357" s="14" t="s">
+      <c r="G357" s="6" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -63582,7 +63627,296 @@
       </c>
       <c r="F359" s="5"/>
     </row>
-    <row r="368" ht="16" customHeight="1"/>
+    <row r="364" spans="2:3">
+      <c r="B364" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6">
+      <c r="B365" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6">
+      <c r="B366" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6">
+      <c r="B367" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F367" s="5"/>
+    </row>
+    <row r="368" ht="16" customHeight="1" spans="2:7">
+      <c r="B368" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7">
+      <c r="B369" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6">
+      <c r="B371" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F371" s="5"/>
+    </row>
+    <row r="372" spans="2:6">
+      <c r="B372" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F372" s="5"/>
+    </row>
+    <row r="373" spans="2:6">
+      <c r="B373" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F373" s="5"/>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6">
+      <c r="B380" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="F380" s="5"/>
+    </row>
+    <row r="381" spans="2:7">
+      <c r="B381" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7">
+      <c r="B382" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6">
+      <c r="B383" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F383" s="5"/>
+    </row>
+    <row r="384" ht="60" spans="2:7">
+      <c r="B384" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G384" s="4" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6">
+      <c r="B385" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F385" s="5"/>
+    </row>
+    <row r="386" spans="2:6">
+      <c r="B386" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F386" s="5"/>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="B389" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6">
+      <c r="B390" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6">
+      <c r="B391" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="F391" s="5"/>
+    </row>
+    <row r="392" spans="2:7">
+      <c r="B392" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6">
+      <c r="B393" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F393" s="5"/>
+    </row>
+    <row r="394" spans="2:7">
+      <c r="B394" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="395" ht="60" spans="2:7">
+      <c r="B395" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G395" s="14" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6">
+      <c r="B396" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F396" s="5"/>
+    </row>
+    <row r="397" spans="2:6">
+      <c r="B397" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F397" s="5"/>
+    </row>
     <row r="413" ht="17" customHeight="1"/>
     <row r="431" ht="17" customHeight="1"/>
     <row r="446" ht="18" customHeight="1"/>
@@ -63601,7 +63935,7 @@
   <sheetPr/>
   <dimension ref="B1:H336"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A165" workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -63635,16 +63969,16 @@
     </row>
     <row r="2" customHeight="1" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:7">
@@ -63891,10 +64225,10 @@
         <v>2113</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G31" t="s">
         <v>1680</v>
@@ -64004,7 +64338,7 @@
     </row>
     <row r="44" customHeight="1" spans="2:7">
       <c r="B44" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C44" t="s">
         <v>2115</v>
@@ -64118,7 +64452,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:7">
       <c r="B59" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>67</v>
@@ -64278,16 +64612,16 @@
     <row r="75" customHeight="1"/>
     <row r="76" customHeight="1" spans="2:6">
       <c r="B76" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>2118</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:6">
@@ -64461,16 +64795,16 @@
     </row>
     <row r="97" customHeight="1" spans="2:7">
       <c r="B97" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>2119</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G97" t="s">
         <v>891</v>
@@ -64632,16 +64966,16 @@
     </row>
     <row r="115" customHeight="1" spans="2:6">
       <c r="B115" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>2120</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:6">
@@ -64728,7 +65062,7 @@
         <v>634</v>
       </c>
       <c r="C124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F124" t="s">
         <v>971</v>
@@ -64739,7 +65073,7 @@
         <v>567</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F125" t="s">
         <v>1260</v>
@@ -64784,7 +65118,7 @@
     <row r="131" customHeight="1"/>
     <row r="132" customHeight="1" spans="2:6">
       <c r="B132" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>94</v>
@@ -64919,13 +65253,13 @@
     <row r="149" customHeight="1"/>
     <row r="150" customHeight="1" spans="2:6">
       <c r="B150" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:6">
@@ -65130,12 +65464,12 @@
     </row>
     <row r="182" customHeight="1" spans="6:6">
       <c r="F182" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="6:6">
       <c r="F183" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="6:6">
@@ -65153,13 +65487,13 @@
     <row r="188" customHeight="1"/>
     <row r="189" customHeight="1" spans="2:6">
       <c r="B189" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="2:6">
@@ -65259,13 +65593,13 @@
     </row>
     <row r="200" customHeight="1" spans="2:6">
       <c r="B200" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F200" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="2:6">
@@ -65276,7 +65610,7 @@
         <v>349</v>
       </c>
       <c r="F201" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="2:6">
@@ -65348,10 +65682,10 @@
     </row>
     <row r="210" customHeight="1" spans="2:6">
       <c r="B210" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F210" t="s">
         <v>1156</v>
@@ -65445,10 +65779,10 @@
     </row>
     <row r="221" customHeight="1" spans="2:6">
       <c r="B221" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F221" t="s">
         <v>1707</v>
@@ -65578,13 +65912,13 @@
     <row r="240" customHeight="1"/>
     <row r="241" customHeight="1" spans="2:6">
       <c r="B241" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="2:6">
@@ -65764,13 +66098,13 @@
     <row r="264" customHeight="1"/>
     <row r="265" customHeight="1" spans="2:6">
       <c r="B265" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F265" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="2:6">
@@ -65896,10 +66230,10 @@
     </row>
     <row r="280" customHeight="1" spans="2:6">
       <c r="B280" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F280" t="s">
         <v>551</v>
@@ -66028,10 +66362,10 @@
     </row>
     <row r="295" customHeight="1" spans="2:6">
       <c r="B295" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F295" t="s">
         <v>1485</v>
@@ -66142,10 +66476,10 @@
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="311" spans="2:3">
@@ -66223,10 +66557,10 @@
     </row>
     <row r="325" spans="2:3">
       <c r="B325" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="326" spans="2:3">

--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lists of all tables" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9794" uniqueCount="2134">
   <si>
     <t>new TMS</t>
   </si>
@@ -6479,6 +6479,9 @@
 FROM old_table_name AS new_table_name;</t>
   </si>
   <si>
+    <t>TERMINATED / PRE-TERMINATED</t>
+  </si>
+  <si>
     <t>activated</t>
   </si>
   <si>
@@ -6611,10 +6614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -7138,16 +7141,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7280,7 +7283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7322,9 +7325,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -7625,13 +7625,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8067,7 +8060,7 @@
   <sheetPr/>
   <dimension ref="A2:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F19" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
@@ -8098,19 +8091,19 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8213,7 +8206,7 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8299,7 +8292,7 @@
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
@@ -8393,7 +8386,7 @@
       <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J16" t="s">
@@ -8488,7 +8481,7 @@
       <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J20" t="s">
@@ -8525,7 +8518,7 @@
       <c r="H22" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J22" t="s">
@@ -60946,10 +60939,10 @@
   <sheetPr/>
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
+      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -62343,7 +62336,7 @@
         <v>1517</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>1875</v>
+        <v>2105</v>
       </c>
       <c r="I178">
         <v>10</v>
@@ -62359,6 +62352,9 @@
       <c r="F179" s="5" t="s">
         <v>656</v>
       </c>
+      <c r="G179" s="5" t="s">
+        <v>1067</v>
+      </c>
       <c r="H179">
         <v>20</v>
       </c>
@@ -62666,7 +62662,7 @@
         <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="207" spans="2:8">
@@ -63176,7 +63172,7 @@
         <v>188</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="N299" s="3" t="s">
         <v>132</v>
@@ -63509,7 +63505,7 @@
         <v>475</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="349" spans="2:7">
@@ -63601,7 +63597,7 @@
         <v>475</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="358" spans="2:7">
@@ -63808,7 +63804,7 @@
         <v>475</v>
       </c>
       <c r="G384" s="4" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="385" spans="2:6">
@@ -63898,8 +63894,8 @@
       <c r="F395" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G395" s="14" t="s">
-        <v>2107</v>
+      <c r="G395" s="6" t="s">
+        <v>2108</v>
       </c>
     </row>
     <row r="396" spans="2:6">
@@ -63954,17 +63950,17 @@
   <sheetData>
     <row r="1" ht="18.75" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:7">
@@ -64065,7 +64061,7 @@
         <v>690</v>
       </c>
       <c r="C11" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="G11" t="s">
         <v>1239</v>
@@ -64222,7 +64218,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:7">
       <c r="B31" s="2" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>173</v>
@@ -64261,7 +64257,7 @@
         <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="G34" t="s">
         <v>1260</v>
@@ -64341,7 +64337,7 @@
         <v>294</v>
       </c>
       <c r="C44" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="G44" t="s">
         <v>1790</v>
@@ -64483,7 +64479,7 @@
         <v>384</v>
       </c>
       <c r="C61" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="F61" t="s">
         <v>975</v>
@@ -64574,7 +64570,7 @@
         <v>709</v>
       </c>
       <c r="C69" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F69" t="s">
         <v>1411</v>
@@ -64618,7 +64614,7 @@
         <v>190</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>190</v>
@@ -64801,7 +64797,7 @@
         <v>129</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>129</v>
@@ -64829,7 +64825,7 @@
         <v>384</v>
       </c>
       <c r="C99" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="F99" t="s">
         <v>1137</v>
@@ -64972,7 +64968,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>127</v>
@@ -64997,7 +64993,7 @@
         <v>1317</v>
       </c>
       <c r="F117" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:6">
@@ -65016,7 +65012,7 @@
         <v>475</v>
       </c>
       <c r="C119" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="F119" t="s">
         <v>962</v>
@@ -65124,7 +65120,7 @@
         <v>94</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>94</v>
@@ -65534,7 +65530,7 @@
         <v>387</v>
       </c>
       <c r="C193" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F193" t="s">
         <v>1023</v>
@@ -65553,7 +65549,7 @@
         <v>475</v>
       </c>
       <c r="C195" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F195" t="s">
         <v>1149</v>
@@ -65742,7 +65738,7 @@
     </row>
     <row r="216" customHeight="1" spans="2:6">
       <c r="B216" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="F216" t="s">
         <v>876</v>
@@ -65937,7 +65933,7 @@
         <v>387</v>
       </c>
       <c r="C243" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F243" t="s">
         <v>892</v>
@@ -66016,7 +66012,7 @@
         <v>475</v>
       </c>
       <c r="C251" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F251" t="s">
         <v>1067</v>
@@ -66123,7 +66119,7 @@
         <v>387</v>
       </c>
       <c r="C267" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F267" t="s">
         <v>897</v>
@@ -66153,7 +66149,7 @@
         <v>450</v>
       </c>
       <c r="C270" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="F270" t="s">
         <v>896</v>
@@ -66255,7 +66251,7 @@
         <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F282" t="s">
         <v>1510</v>
@@ -66285,7 +66281,7 @@
         <v>450</v>
       </c>
       <c r="C285" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="F285" t="s">
         <v>1260</v>
@@ -66387,7 +66383,7 @@
         <v>387</v>
       </c>
       <c r="C297" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F297" t="s">
         <v>1706</v>
@@ -66417,7 +66413,7 @@
         <v>450</v>
       </c>
       <c r="C300" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="F300" t="s">
         <v>1147</v>
@@ -66495,7 +66491,7 @@
         <v>387</v>
       </c>
       <c r="C312" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="313" spans="2:2">
@@ -66516,7 +66512,7 @@
         <v>450</v>
       </c>
       <c r="C315" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="316" spans="2:3">
@@ -66576,7 +66572,7 @@
         <v>387</v>
       </c>
       <c r="C327" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="328" spans="2:2">
@@ -66597,7 +66593,7 @@
         <v>450</v>
       </c>
       <c r="C330" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="331" spans="2:3">
@@ -66658,22 +66654,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
   </sheetData>

--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9794" uniqueCount="2134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9904" uniqueCount="2135">
   <si>
     <t>new TMS</t>
   </si>
@@ -6477,6 +6477,9 @@
         WHEN deleted = 1 THEN 20
     END AS `status`
 FROM old_table_name AS new_table_name;</t>
+  </si>
+  <si>
+    <t>join to clientoffer file to get id</t>
   </si>
   <si>
     <t>TERMINATED / PRE-TERMINATED</t>
@@ -8060,8 +8063,8 @@
   <sheetPr/>
   <dimension ref="A2:M151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9975,10 +9978,10 @@
   <sheetPr/>
   <dimension ref="B1:DT37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="CH1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="CN1" sqref="CN1:CN9"/>
+      <selection pane="bottomLeft" activeCell="BC1" sqref="BC1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -15245,10 +15248,10 @@
   <sheetPr/>
   <dimension ref="B2:ET2922"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="CH1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="CL1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="CR2" sqref="CR2:CR9"/>
+      <selection pane="bottomLeft" activeCell="CQ2" sqref="CQ2:CQ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -60939,10 +60942,10 @@
   <sheetPr/>
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
+      <selection pane="bottomLeft" activeCell="Q168" sqref="Q168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -60953,11 +60956,11 @@
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="48.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="48.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="40.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="52.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="32.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="9.71428571428571" customWidth="1"/>
     <col min="10" max="10" width="49" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="29.9142857142857" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="13" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -62068,15 +62071,21 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:11">
       <c r="B159" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="160" spans="2:7">
+      <c r="J159" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12">
       <c r="B160" s="5" t="s">
         <v>349</v>
       </c>
@@ -62089,8 +62098,17 @@
       <c r="G160" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="161" spans="2:7">
+      <c r="J160" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14">
       <c r="B161" s="5" t="s">
         <v>376</v>
       </c>
@@ -62103,8 +62121,23 @@
       <c r="G161" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="162" spans="2:6">
+      <c r="J161" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="N161" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14">
       <c r="B162" s="5" t="s">
         <v>353</v>
       </c>
@@ -62114,8 +62147,23 @@
       <c r="F162" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="163" spans="2:7">
+      <c r="J162" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="N162" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13">
       <c r="B163" s="5" t="s">
         <v>488</v>
       </c>
@@ -62128,8 +62176,20 @@
       <c r="G163" s="5" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="164" spans="2:9">
+      <c r="J163" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L163" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="M163" s="5" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13">
       <c r="B164" s="5" t="s">
         <v>368</v>
       </c>
@@ -62145,8 +62205,20 @@
       <c r="I164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="2:6">
+      <c r="J164" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13">
       <c r="B165" s="5" t="s">
         <v>365</v>
       </c>
@@ -62156,8 +62228,20 @@
       <c r="F165" s="5" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="166" spans="2:7">
+      <c r="J165" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L165" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13">
       <c r="B166" s="5" t="s">
         <v>626</v>
       </c>
@@ -62170,8 +62254,20 @@
       <c r="G166" s="5" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="167" spans="2:7">
+      <c r="J166" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13">
       <c r="B167" s="5" t="s">
         <v>556</v>
       </c>
@@ -62184,8 +62280,20 @@
       <c r="G167" s="5" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="168" spans="2:7">
+      <c r="J167" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L167" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13">
       <c r="B168" s="5" t="s">
         <v>378</v>
       </c>
@@ -62198,8 +62306,20 @@
       <c r="G168" s="5" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="169" spans="2:7">
+      <c r="J168" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13">
       <c r="B169" s="5" t="s">
         <v>518</v>
       </c>
@@ -62212,8 +62332,20 @@
       <c r="G169" s="5" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="170" spans="2:7">
+      <c r="J169" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L169" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="M169" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12">
       <c r="B170" s="5" t="s">
         <v>719</v>
       </c>
@@ -62226,8 +62358,17 @@
       <c r="G170" s="5" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="171" spans="2:7">
+      <c r="J170" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13">
       <c r="B171" s="5" t="s">
         <v>732</v>
       </c>
@@ -62240,8 +62381,20 @@
       <c r="G171" s="5" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="172" spans="2:6">
+      <c r="J171" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="M171" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13">
       <c r="B172" s="5" t="s">
         <v>750</v>
       </c>
@@ -62251,8 +62404,20 @@
       <c r="F172" s="5" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="173" spans="2:7">
+      <c r="J172" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13">
       <c r="B173" s="5" t="s">
         <v>738</v>
       </c>
@@ -62265,8 +62430,20 @@
       <c r="G173" s="5" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="174" spans="2:7">
+      <c r="J173" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13">
       <c r="B174" s="5" t="s">
         <v>775</v>
       </c>
@@ -62279,8 +62456,20 @@
       <c r="G174" s="5" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="175" spans="2:7">
+      <c r="J174" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13">
       <c r="B175" s="5" t="s">
         <v>790</v>
       </c>
@@ -62293,8 +62482,20 @@
       <c r="G175" s="5" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="176" spans="2:7">
+      <c r="J175" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="M175" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12">
       <c r="B176" s="5" t="s">
         <v>799</v>
       </c>
@@ -62307,8 +62508,17 @@
       <c r="G176" s="5" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="177" spans="2:7">
+      <c r="J176" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12">
       <c r="B177" s="5" t="s">
         <v>809</v>
       </c>
@@ -62321,8 +62531,17 @@
       <c r="G177" s="5" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="178" spans="2:9">
+      <c r="J177" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="L177" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12">
       <c r="B178" s="5" t="s">
         <v>475</v>
       </c>
@@ -62336,13 +62555,22 @@
         <v>1517</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="I178">
         <v>10</v>
       </c>
-    </row>
-    <row r="179" spans="2:8">
+      <c r="J178" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12">
       <c r="B179" s="5" t="s">
         <v>656</v>
       </c>
@@ -62358,8 +62586,17 @@
       <c r="H179">
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="2:6">
+      <c r="J179" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11">
       <c r="B180" s="5" t="s">
         <v>832</v>
       </c>
@@ -62369,8 +62606,11 @@
       <c r="F180" s="5" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="181" spans="2:6">
+      <c r="K180" s="5" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11">
       <c r="B181" s="5" t="s">
         <v>838</v>
       </c>
@@ -62380,8 +62620,11 @@
       <c r="F181" s="5" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="182" spans="2:6">
+      <c r="K181" s="5" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11">
       <c r="B182" s="5" t="s">
         <v>843</v>
       </c>
@@ -62391,8 +62634,11 @@
       <c r="F182" s="5" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="183" spans="2:7">
+      <c r="K182" s="5" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11">
       <c r="B183" s="5" t="s">
         <v>847</v>
       </c>
@@ -62405,8 +62651,11 @@
       <c r="G183" s="5" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="184" spans="2:7">
+      <c r="K183" s="5" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11">
       <c r="B184" s="5" t="s">
         <v>436</v>
       </c>
@@ -62419,8 +62668,11 @@
       <c r="G184" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="185" spans="2:6">
+      <c r="K184" s="5" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
       <c r="B185" s="5" t="s">
         <v>546</v>
       </c>
@@ -62430,8 +62682,11 @@
       <c r="F185" s="5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="186" spans="2:6">
+      <c r="K185" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11">
       <c r="B186" s="5" t="s">
         <v>394</v>
       </c>
@@ -62441,8 +62696,11 @@
       <c r="F186" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="187" spans="2:6">
+      <c r="K186" s="5" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11">
       <c r="B187" s="5" t="s">
         <v>456</v>
       </c>
@@ -62452,36 +62710,54 @@
       <c r="F187" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="188" spans="3:3">
+      <c r="K187" s="5" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="188" spans="3:11">
       <c r="C188" s="5" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="189" spans="3:3">
+      <c r="K188" s="5" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="189" spans="3:11">
       <c r="C189" s="5" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="190" spans="3:3">
+      <c r="K189" s="5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="190" spans="3:11">
       <c r="C190" s="5" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="191" spans="3:3">
+      <c r="K190" s="5" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="191" spans="3:11">
       <c r="C191" s="5" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="192" spans="2:3">
+      <c r="K191" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11">
       <c r="B192" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="193" spans="2:7">
+      <c r="K192" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11">
       <c r="B193" s="5" t="s">
         <v>349</v>
       </c>
@@ -62494,8 +62770,11 @@
       <c r="G193" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="194" spans="2:7">
+      <c r="K193" s="5" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11">
       <c r="B194" s="5" t="s">
         <v>379</v>
       </c>
@@ -62508,8 +62787,11 @@
       <c r="G194" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="195" spans="2:9">
+      <c r="K194" s="5" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11">
       <c r="B195" s="5" t="s">
         <v>435</v>
       </c>
@@ -62528,8 +62810,11 @@
       <c r="I195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:6">
+      <c r="K195" s="5" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11">
       <c r="B196" s="5" t="s">
         <v>492</v>
       </c>
@@ -62539,8 +62824,11 @@
       <c r="F196" s="5" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="197" spans="2:7">
+      <c r="K196" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11">
       <c r="B197" s="5" t="s">
         <v>545</v>
       </c>
@@ -62553,8 +62841,11 @@
       <c r="G197" s="5" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="198" spans="2:7">
+      <c r="K197" s="5" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11">
       <c r="B198" s="5" t="s">
         <v>590</v>
       </c>
@@ -62567,8 +62858,11 @@
       <c r="G198" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="199" spans="2:7">
+      <c r="K198" s="5" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11">
       <c r="B199" s="5" t="s">
         <v>630</v>
       </c>
@@ -62581,8 +62875,11 @@
       <c r="G199" s="5" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="200" spans="2:6">
+      <c r="K199" s="5" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11">
       <c r="B200" s="5" t="s">
         <v>660</v>
       </c>
@@ -62592,8 +62889,11 @@
       <c r="F200" s="5" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="201" spans="2:6">
+      <c r="K200" s="5" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11">
       <c r="B201" s="5" t="s">
         <v>685</v>
       </c>
@@ -62603,8 +62903,11 @@
       <c r="F201" s="5" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="202" spans="2:6">
+      <c r="K201" s="5" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11">
       <c r="B202" s="5" t="s">
         <v>703</v>
       </c>
@@ -62614,8 +62917,11 @@
       <c r="F202" s="5" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="203" spans="2:6">
+      <c r="K202" s="5" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11">
       <c r="B203" s="5" t="s">
         <v>721</v>
       </c>
@@ -62625,8 +62931,11 @@
       <c r="F203" s="5" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="204" spans="2:6">
+      <c r="K203" s="5" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11">
       <c r="B204" s="5" t="s">
         <v>734</v>
       </c>
@@ -62636,8 +62945,11 @@
       <c r="F204" s="5" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="205" spans="2:6">
+      <c r="K204" s="5" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11">
       <c r="B205" s="5" t="s">
         <v>752</v>
       </c>
@@ -62647,8 +62959,11 @@
       <c r="F205" s="5" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="206" spans="2:9">
+      <c r="K205" s="5" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11">
       <c r="B206" s="5" t="s">
         <v>766</v>
       </c>
@@ -62662,10 +62977,13 @@
         <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8">
+        <v>2107</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11">
       <c r="B207" s="5" t="s">
         <v>778</v>
       </c>
@@ -62678,8 +62996,11 @@
       <c r="H207">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="2:6">
+      <c r="K207" s="5" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11">
       <c r="B208" s="5" t="s">
         <v>394</v>
       </c>
@@ -62689,8 +63010,11 @@
       <c r="F208" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="209" spans="2:6">
+      <c r="K208" s="5" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11">
       <c r="B209" s="5" t="s">
         <v>456</v>
       </c>
@@ -62700,21 +63024,30 @@
       <c r="F209" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="210" spans="3:7">
+      <c r="K209" s="5" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="210" spans="3:11">
       <c r="C210" s="5" t="s">
         <v>1810</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="211" spans="3:7">
+      <c r="K210" s="5" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="211" spans="3:11">
       <c r="C211" s="5" t="s">
         <v>1818</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>886</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="212" spans="3:7">
@@ -63172,7 +63505,7 @@
         <v>188</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="N299" s="3" t="s">
         <v>132</v>
@@ -63505,7 +63838,7 @@
         <v>475</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="349" spans="2:7">
@@ -63597,7 +63930,7 @@
         <v>475</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="358" spans="2:7">
@@ -63804,7 +64137,7 @@
         <v>475</v>
       </c>
       <c r="G384" s="4" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="385" spans="2:6">
@@ -63895,7 +64228,7 @@
         <v>475</v>
       </c>
       <c r="G395" s="6" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="396" spans="2:6">
@@ -63950,17 +64283,17 @@
   <sheetData>
     <row r="1" ht="18.75" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:7">
@@ -64061,7 +64394,7 @@
         <v>690</v>
       </c>
       <c r="C11" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="G11" t="s">
         <v>1239</v>
@@ -64218,7 +64551,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:7">
       <c r="B31" s="2" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>173</v>
@@ -64257,7 +64590,7 @@
         <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="G34" t="s">
         <v>1260</v>
@@ -64337,7 +64670,7 @@
         <v>294</v>
       </c>
       <c r="C44" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="G44" t="s">
         <v>1790</v>
@@ -64479,7 +64812,7 @@
         <v>384</v>
       </c>
       <c r="C61" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F61" t="s">
         <v>975</v>
@@ -64570,7 +64903,7 @@
         <v>709</v>
       </c>
       <c r="C69" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="F69" t="s">
         <v>1411</v>
@@ -64614,7 +64947,7 @@
         <v>190</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>190</v>
@@ -64797,7 +65130,7 @@
         <v>129</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>129</v>
@@ -64825,7 +65158,7 @@
         <v>384</v>
       </c>
       <c r="C99" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F99" t="s">
         <v>1137</v>
@@ -64968,7 +65301,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>127</v>
@@ -64993,7 +65326,7 @@
         <v>1317</v>
       </c>
       <c r="F117" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:6">
@@ -65012,7 +65345,7 @@
         <v>475</v>
       </c>
       <c r="C119" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F119" t="s">
         <v>962</v>
@@ -65120,7 +65453,7 @@
         <v>94</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>94</v>
@@ -65530,7 +65863,7 @@
         <v>387</v>
       </c>
       <c r="C193" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F193" t="s">
         <v>1023</v>
@@ -65549,7 +65882,7 @@
         <v>475</v>
       </c>
       <c r="C195" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="F195" t="s">
         <v>1149</v>
@@ -65738,7 +66071,7 @@
     </row>
     <row r="216" customHeight="1" spans="2:6">
       <c r="B216" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F216" t="s">
         <v>876</v>
@@ -65933,7 +66266,7 @@
         <v>387</v>
       </c>
       <c r="C243" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F243" t="s">
         <v>892</v>
@@ -66012,7 +66345,7 @@
         <v>475</v>
       </c>
       <c r="C251" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="F251" t="s">
         <v>1067</v>
@@ -66119,7 +66452,7 @@
         <v>387</v>
       </c>
       <c r="C267" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F267" t="s">
         <v>897</v>
@@ -66149,7 +66482,7 @@
         <v>450</v>
       </c>
       <c r="C270" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F270" t="s">
         <v>896</v>
@@ -66251,7 +66584,7 @@
         <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F282" t="s">
         <v>1510</v>
@@ -66281,7 +66614,7 @@
         <v>450</v>
       </c>
       <c r="C285" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F285" t="s">
         <v>1260</v>
@@ -66383,7 +66716,7 @@
         <v>387</v>
       </c>
       <c r="C297" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="F297" t="s">
         <v>1706</v>
@@ -66413,7 +66746,7 @@
         <v>450</v>
       </c>
       <c r="C300" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F300" t="s">
         <v>1147</v>
@@ -66491,7 +66824,7 @@
         <v>387</v>
       </c>
       <c r="C312" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="313" spans="2:2">
@@ -66512,7 +66845,7 @@
         <v>450</v>
       </c>
       <c r="C315" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="316" spans="2:3">
@@ -66572,7 +66905,7 @@
         <v>387</v>
       </c>
       <c r="C327" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="328" spans="2:2">
@@ -66593,7 +66926,7 @@
         <v>450</v>
       </c>
       <c r="C330" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="331" spans="2:3">
@@ -66654,22 +66987,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
   </sheetData>

--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="11580" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lists of all tables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11359" uniqueCount="2190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11457" uniqueCount="2190">
   <si>
     <t>new TMS</t>
   </si>
@@ -6787,10 +6787,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -7361,16 +7361,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11027,10 +11027,10 @@
   <sheetPr/>
   <dimension ref="B1:ED37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="DD1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="BR1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="DG1" sqref="DG1:DG19"/>
+      <selection pane="bottomLeft" activeCell="BW1" sqref="BW1:BW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -16578,10 +16578,10 @@
   <sheetPr/>
   <dimension ref="B2:ET2922"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="CT1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AD1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="CY2" sqref="CY2:DA54"/>
+      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2:AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -62270,12 +62270,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG463"/>
+  <dimension ref="A1:AM463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AJ296" sqref="AJ296"/>
+      <selection pane="bottomLeft" activeCell="AN311" sqref="AN311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -62303,6 +62303,11 @@
     <col min="31" max="31" width="14.2857142857143" customWidth="1"/>
     <col min="32" max="32" width="31.7142857142857" customWidth="1"/>
     <col min="33" max="33" width="14.2857142857143" customWidth="1"/>
+    <col min="35" max="35" width="15.4285714285714" customWidth="1"/>
+    <col min="36" max="36" width="13.1428571428571" customWidth="1"/>
+    <col min="37" max="37" width="16.4285714285714" customWidth="1"/>
+    <col min="38" max="38" width="15.4285714285714" customWidth="1"/>
+    <col min="39" max="39" width="28.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -65343,7 +65348,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="287" spans="3:32">
+    <row r="287" spans="3:39">
       <c r="C287" s="1" t="s">
         <v>1752</v>
       </c>
@@ -65383,8 +65388,23 @@
       <c r="AF287" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="288" spans="3:32">
+      <c r="AI287" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ287" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK287" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL287" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM287" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="288" spans="3:39">
       <c r="C288" s="1" t="s">
         <v>1531</v>
       </c>
@@ -65421,8 +65441,23 @@
       <c r="AF288" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="289" spans="3:32">
+      <c r="AI288" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ288" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK288" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL288" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM288" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="289" spans="3:39">
       <c r="C289" s="1" t="s">
         <v>761</v>
       </c>
@@ -65471,8 +65506,23 @@
       <c r="AF289" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="290" spans="3:32">
+      <c r="AI289" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="AJ289" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AK289" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AL289" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM289" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="290" spans="3:39">
       <c r="C290" s="1" t="s">
         <v>1687</v>
       </c>
@@ -65515,8 +65565,23 @@
       <c r="AF290" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="291" spans="3:32">
+      <c r="AI290" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AJ290" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AK290" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AL290" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AM290" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="291" spans="3:39">
       <c r="C291" s="1" t="s">
         <v>646</v>
       </c>
@@ -65559,8 +65624,23 @@
       <c r="AF291" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="292" spans="3:32">
+      <c r="AI291" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ291" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AK291" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AL291" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM291" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="292" spans="3:39">
       <c r="C292" s="1" t="s">
         <v>1551</v>
       </c>
@@ -65600,8 +65680,23 @@
       <c r="AF292" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="293" spans="3:32">
+      <c r="AI292" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AJ292" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AK292" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AL292" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AM292" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="293" spans="3:39">
       <c r="C293" s="1" t="s">
         <v>1570</v>
       </c>
@@ -65641,8 +65736,23 @@
       <c r="AF293" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="294" spans="3:32">
+      <c r="AI293" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AJ293" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AK293" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AL293" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AM293" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="294" spans="3:39">
       <c r="C294" s="1" t="s">
         <v>1810</v>
       </c>
@@ -65685,8 +65795,23 @@
       <c r="AF294" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="295" spans="3:33">
+      <c r="AI294" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AJ294" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AK294" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AL294" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AM294" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="295" spans="3:39">
       <c r="C295" s="1" t="s">
         <v>1043</v>
       </c>
@@ -65735,8 +65860,23 @@
       <c r="AG295" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="296" spans="9:32">
+      <c r="AI295" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AJ295" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AK295" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AL295" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM295" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="296" spans="9:39">
       <c r="I296" s="1" t="s">
         <v>1323</v>
       </c>
@@ -65779,8 +65919,23 @@
       <c r="AF296" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="297" spans="10:33">
+      <c r="AI296" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ296" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AK296" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AL296" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AM296" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="297" spans="10:39">
       <c r="J297" s="1" t="s">
         <v>1642</v>
       </c>
@@ -65820,8 +65975,21 @@
       <c r="AG297" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="298" spans="10:33">
+      <c r="AI297" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AJ297" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK297" s="1"/>
+      <c r="AL297" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AM297" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="298" spans="10:39">
       <c r="J298" s="1" t="s">
         <v>360</v>
       </c>
@@ -65856,8 +66024,19 @@
       <c r="AG298" s="1" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="299" spans="2:32">
+      <c r="AI298" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AJ298" s="1"/>
+      <c r="AK298" s="1"/>
+      <c r="AL298" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AM298" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="299" spans="2:39">
       <c r="B299" s="20" t="s">
         <v>184</v>
       </c>
@@ -65895,8 +66074,19 @@
       <c r="AF299" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="300" customHeight="1" spans="2:32">
+      <c r="AI299" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AJ299" s="1"/>
+      <c r="AK299" s="1"/>
+      <c r="AL299" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AM299" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="2:39">
       <c r="B300" s="1" t="s">
         <v>360</v>
       </c>
@@ -65931,8 +66121,19 @@
       <c r="AF300" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="301" spans="2:32">
+      <c r="AI300" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AJ300" s="1"/>
+      <c r="AK300" s="1"/>
+      <c r="AL300" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AM300" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="301" spans="2:39">
       <c r="B301" s="1" t="s">
         <v>405</v>
       </c>
@@ -65964,8 +66165,19 @@
       <c r="AF301" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="302" spans="2:32">
+      <c r="AI301" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AJ301" s="1"/>
+      <c r="AK301" s="1"/>
+      <c r="AL301" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AM301" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="302" spans="2:39">
       <c r="B302" s="1" t="s">
         <v>487</v>
       </c>
@@ -66002,8 +66214,19 @@
       <c r="AF302" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="303" spans="2:32">
+      <c r="AI302" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AJ302" s="1"/>
+      <c r="AK302" s="1"/>
+      <c r="AL302" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AM302" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="303" spans="2:39">
       <c r="B303" s="1" t="s">
         <v>538</v>
       </c>
@@ -66043,8 +66266,19 @@
       <c r="AF303" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="304" spans="2:32">
+      <c r="AI303" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AJ303" s="1"/>
+      <c r="AK303" s="1"/>
+      <c r="AL303" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AM303" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="304" spans="2:39">
       <c r="B304" s="1" t="s">
         <v>588</v>
       </c>
@@ -66079,8 +66313,19 @@
       <c r="AF304" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="305" spans="2:32">
+      <c r="AI304" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AJ304" s="1"/>
+      <c r="AK304" s="1"/>
+      <c r="AL304" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AM304" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="305" spans="2:39">
       <c r="B305" s="1" t="s">
         <v>632</v>
       </c>
@@ -66112,8 +66357,19 @@
       <c r="AF305" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="306" spans="2:27">
+      <c r="AI305" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="AJ305" s="1"/>
+      <c r="AK305" s="1"/>
+      <c r="AL305" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="AM305" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="306" spans="2:38">
       <c r="B306" s="1" t="s">
         <v>635</v>
       </c>
@@ -66145,8 +66401,16 @@
       <c r="AA306" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="307" spans="2:31">
+      <c r="AI306" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AJ306" s="1"/>
+      <c r="AK306" s="1"/>
+      <c r="AL306" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="307" spans="2:38">
       <c r="B307" s="1" t="s">
         <v>691</v>
       </c>
@@ -66178,8 +66442,16 @@
       <c r="AE307" s="1" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="308" spans="2:26">
+      <c r="AI307" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AJ307" s="1"/>
+      <c r="AK307" s="1"/>
+      <c r="AL307" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="308" spans="2:38">
       <c r="B308" s="1" t="s">
         <v>713</v>
       </c>
@@ -66205,8 +66477,16 @@
       <c r="Z308" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="309" spans="2:31">
+      <c r="AI308" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AJ308" s="1"/>
+      <c r="AK308" s="1"/>
+      <c r="AL308" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="2:38">
       <c r="B309" s="1" t="s">
         <v>731</v>
       </c>
@@ -66244,8 +66524,16 @@
       <c r="AE309" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="310" spans="2:31">
+      <c r="AI309" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="AJ309" s="1"/>
+      <c r="AK309" s="1"/>
+      <c r="AL309" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="310" spans="2:38">
       <c r="B310" s="1" t="s">
         <v>752</v>
       </c>
@@ -66277,8 +66565,16 @@
       <c r="AE310" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="311" spans="2:31">
+      <c r="AI310" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AJ310" s="1"/>
+      <c r="AK310" s="1"/>
+      <c r="AL310" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="311" spans="2:38">
       <c r="B311" s="1" t="s">
         <v>765</v>
       </c>
@@ -66310,8 +66606,16 @@
       <c r="AE311" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="312" spans="2:31">
+      <c r="AI311" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AJ311" s="1"/>
+      <c r="AK311" s="1"/>
+      <c r="AL311" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="312" spans="2:38">
       <c r="B312" s="1" t="s">
         <v>779</v>
       </c>
@@ -66343,8 +66647,16 @@
       <c r="AE312" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="313" spans="2:31">
+      <c r="AI312" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="AJ312" s="1"/>
+      <c r="AK312" s="1"/>
+      <c r="AL312" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="313" spans="2:38">
       <c r="B313" s="1" t="s">
         <v>643</v>
       </c>
@@ -66370,8 +66682,16 @@
       <c r="AE313" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="314" spans="2:31">
+      <c r="AI313" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AJ313" s="1"/>
+      <c r="AK313" s="1"/>
+      <c r="AL313" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="314" spans="2:38">
       <c r="B314" s="1" t="s">
         <v>804</v>
       </c>
@@ -66400,8 +66720,16 @@
       <c r="AE314" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="315" spans="2:31">
+      <c r="AI314" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AJ314" s="1"/>
+      <c r="AK314" s="1"/>
+      <c r="AL314" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="315" spans="2:38">
       <c r="B315" s="1" t="s">
         <v>590</v>
       </c>
@@ -66432,6 +66760,14 @@
       </c>
       <c r="AE315" s="1" t="s">
         <v>1564</v>
+      </c>
+      <c r="AI315" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AJ315" s="1"/>
+      <c r="AK315" s="1"/>
+      <c r="AL315" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="316" spans="2:28">
@@ -71333,7 +71669,7 @@
   <sheetPr/>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="N72" sqref="N72:N73"/>

--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12180" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lists of all tables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11457" uniqueCount="2190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11458" uniqueCount="2191">
   <si>
     <t>new TMS</t>
   </si>
@@ -6544,6 +6544,9 @@
     <t>soafile - moa</t>
   </si>
   <si>
+    <t>event</t>
+  </si>
+  <si>
     <t>soa number</t>
   </si>
   <si>
@@ -6787,10 +6790,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -7203,7 +7206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -7238,6 +7241,26 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7361,16 +7384,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7379,7 +7402,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7391,34 +7414,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7503,7 +7526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7543,6 +7566,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7564,31 +7593,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -8335,31 +8364,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8462,7 +8491,7 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="30" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8548,7 +8577,7 @@
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J11" t="s">
@@ -8642,7 +8671,7 @@
       <c r="H16" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J16" t="s">
@@ -8737,7 +8766,7 @@
       <c r="H20" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J20" t="s">
@@ -8774,7 +8803,7 @@
       <c r="H22" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J22" t="s">
@@ -9188,7 +9217,7 @@
       <c r="L49" t="s">
         <v>186</v>
       </c>
-      <c r="M49" s="18" t="s">
+      <c r="M49" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9239,7 +9268,7 @@
       <c r="L52" t="s">
         <v>198</v>
       </c>
-      <c r="M52" s="19" t="s">
+      <c r="M52" s="21" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10239,30 +10268,30 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:14">
       <c r="B2" s="1" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
@@ -10605,7 +10634,7 @@
         <v>317</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -10754,7 +10783,7 @@
         <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>130</v>
@@ -11168,404 +11197,404 @@
     <col min="135" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="2:134">
-      <c r="B1" s="20" t="s">
+    <row r="1" s="22" customFormat="1" spans="2:134">
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AS1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AT1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AU1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="AV1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="AW1" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="AX1" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="AY1" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BA1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BB1" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BC1" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="BD1" s="20" t="s">
+      <c r="BD1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="BE1" s="20" t="s">
+      <c r="BE1" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="BF1" s="20" t="s">
+      <c r="BF1" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BG1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="BH1" s="20" t="s">
+      <c r="BH1" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="BI1" s="20" t="s">
+      <c r="BI1" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="BJ1" s="20" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="BK1" s="20" t="s">
+      <c r="BK1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BL1" s="20" t="s">
+      <c r="BL1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="BM1" s="20" t="s">
+      <c r="BM1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="BN1" s="20" t="s">
+      <c r="BN1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="BO1" s="20" t="s">
+      <c r="BO1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BP1" s="20" t="s">
+      <c r="BP1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="BQ1" s="20" t="s">
+      <c r="BQ1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="BR1" s="20" t="s">
+      <c r="BR1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="BS1" s="20" t="s">
+      <c r="BS1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="BT1" s="20" t="s">
+      <c r="BT1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="BU1" s="20" t="s">
+      <c r="BU1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="BV1" s="20" t="s">
+      <c r="BV1" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="BW1" s="20" t="s">
+      <c r="BW1" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="BX1" s="20" t="s">
+      <c r="BX1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="BY1" s="20" t="s">
+      <c r="BY1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="BZ1" s="20" t="s">
+      <c r="BZ1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="CA1" s="20" t="s">
+      <c r="CA1" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="CB1" s="20" t="s">
+      <c r="CB1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="CC1" s="20" t="s">
+      <c r="CC1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="CD1" s="20" t="s">
+      <c r="CD1" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="CE1" s="20" t="s">
+      <c r="CE1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="CF1" s="20" t="s">
+      <c r="CF1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="CG1" s="20" t="s">
+      <c r="CG1" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="CH1" s="20" t="s">
+      <c r="CH1" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="CI1" s="20" t="s">
+      <c r="CI1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="CJ1" s="20" t="s">
+      <c r="CJ1" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="CK1" s="20" t="s">
+      <c r="CK1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="CL1" s="20" t="s">
+      <c r="CL1" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="CM1" s="20" t="s">
+      <c r="CM1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="CN1" s="20" t="s">
+      <c r="CN1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="CO1" s="20" t="s">
+      <c r="CO1" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="CP1" s="20" t="s">
+      <c r="CP1" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="CQ1" s="20" t="s">
+      <c r="CQ1" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="CR1" s="20" t="s">
+      <c r="CR1" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="CS1" s="20" t="s">
+      <c r="CS1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="CT1" s="20" t="s">
+      <c r="CT1" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="CU1" s="20" t="s">
+      <c r="CU1" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="CV1" s="20" t="s">
+      <c r="CV1" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="CW1" s="20" t="s">
+      <c r="CW1" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="CX1" s="20" t="s">
+      <c r="CX1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="CY1" s="20" t="s">
+      <c r="CY1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="CZ1" s="20" t="s">
+      <c r="CZ1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="DA1" s="20" t="s">
+      <c r="DA1" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="DB1" s="20" t="s">
+      <c r="DB1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="DC1" s="20" t="s">
+      <c r="DC1" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="DD1" s="20" t="s">
+      <c r="DD1" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="DE1" s="20" t="s">
+      <c r="DE1" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="DF1" s="20" t="s">
+      <c r="DF1" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="DG1" s="20" t="s">
+      <c r="DG1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="DH1" s="20" t="s">
+      <c r="DH1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="DI1" s="20" t="s">
+      <c r="DI1" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="DJ1" s="20" t="s">
+      <c r="DJ1" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="DK1" s="20" t="s">
+      <c r="DK1" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="DL1" s="20" t="s">
+      <c r="DL1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="DM1" s="20" t="s">
+      <c r="DM1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="DN1" s="20" t="s">
+      <c r="DN1" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="DO1" s="20" t="s">
+      <c r="DO1" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="DP1" s="20" t="s">
+      <c r="DP1" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="DQ1" s="20" t="s">
+      <c r="DQ1" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="DR1" s="20" t="s">
+      <c r="DR1" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="DS1" s="20" t="s">
+      <c r="DS1" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="DT1" s="20" t="s">
+      <c r="DT1" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="DU1" s="20" t="s">
+      <c r="DU1" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="DV1" s="20" t="s">
+      <c r="DV1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="DW1" s="20" t="s">
+      <c r="DW1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="DX1" s="20" t="s">
+      <c r="DX1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="DY1" s="20" t="s">
+      <c r="DY1" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="DZ1" s="20" t="s">
+      <c r="DZ1" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="EA1" s="20" t="s">
+      <c r="EA1" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="EB1" s="20" t="s">
+      <c r="EB1" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="EC1" s="20" t="s">
+      <c r="EC1" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="ED1" s="20" t="s">
+      <c r="ED1" s="22" t="s">
         <v>341</v>
       </c>
     </row>
@@ -16729,452 +16758,452 @@
     <col min="150" max="150" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="24" customFormat="1" spans="2:150">
-      <c r="B2" s="20" t="s">
+    <row r="2" s="26" customFormat="1" spans="2:150">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AR2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AS2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AV2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AW2" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AX2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="BB2" s="20" t="s">
+      <c r="BB2" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BL2" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="BM2" s="20" t="s">
+      <c r="BM2" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="BN2" s="20" t="s">
+      <c r="BN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BO2" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="BQ2" s="20" t="s">
+      <c r="BQ2" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="BR2" s="20" t="s">
+      <c r="BR2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BV2" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="BW2" s="20" t="s">
+      <c r="BW2" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="BX2" s="20" t="s">
+      <c r="BX2" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="BY2" s="20" t="s">
+      <c r="BY2" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BZ2" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="CA2" s="20" t="s">
+      <c r="CA2" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="CB2" s="20" t="s">
+      <c r="CB2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="CC2" s="20" t="s">
+      <c r="CC2" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="CD2" s="20" t="s">
+      <c r="CD2" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="CE2" s="20" t="s">
+      <c r="CE2" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="CF2" s="20" t="s">
+      <c r="CF2" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="CG2" s="20" t="s">
+      <c r="CG2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="CH2" s="20" t="s">
+      <c r="CH2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="CI2" s="20" t="s">
+      <c r="CI2" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="CJ2" s="20" t="s">
+      <c r="CJ2" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="CK2" s="20" t="s">
+      <c r="CK2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="CL2" s="20" t="s">
+      <c r="CL2" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="CM2" s="20" t="s">
+      <c r="CM2" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="CN2" s="20" t="s">
+      <c r="CN2" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="CO2" s="20" t="s">
+      <c r="CO2" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="CP2" s="20" t="s">
+      <c r="CP2" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="CQ2" s="20" t="s">
+      <c r="CQ2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="CR2" s="20" t="s">
+      <c r="CR2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CS2" s="20" t="s">
+      <c r="CS2" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="CT2" s="20" t="s">
+      <c r="CT2" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="CU2" s="20" t="s">
+      <c r="CU2" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="CV2" s="20" t="s">
+      <c r="CV2" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="CW2" s="20" t="s">
+      <c r="CW2" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="CX2" s="20" t="s">
+      <c r="CX2" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="CY2" s="20" t="s">
+      <c r="CY2" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="CZ2" s="20" t="s">
+      <c r="CZ2" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="DA2" s="20" t="s">
+      <c r="DA2" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="DB2" s="20" t="s">
+      <c r="DB2" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="DC2" s="20" t="s">
+      <c r="DC2" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="DD2" s="20" t="s">
+      <c r="DD2" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="DE2" s="20" t="s">
+      <c r="DE2" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="DF2" s="20" t="s">
+      <c r="DF2" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="DG2" s="20" t="s">
+      <c r="DG2" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="DH2" s="20" t="s">
+      <c r="DH2" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="DI2" s="20" t="s">
+      <c r="DI2" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="DJ2" s="20" t="s">
+      <c r="DJ2" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="DK2" s="20" t="s">
+      <c r="DK2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="DL2" s="20" t="s">
+      <c r="DL2" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="DM2" s="20" t="s">
+      <c r="DM2" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="DN2" s="20" t="s">
+      <c r="DN2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="DO2" s="20" t="s">
+      <c r="DO2" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="DP2" s="20" t="s">
+      <c r="DP2" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="DQ2" s="20" t="s">
+      <c r="DQ2" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="DR2" s="20" t="s">
+      <c r="DR2" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="DS2" s="20" t="s">
+      <c r="DS2" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="DT2" s="20" t="s">
+      <c r="DT2" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="DU2" s="20" t="s">
+      <c r="DU2" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="DV2" s="20" t="s">
+      <c r="DV2" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="DW2" s="20" t="s">
+      <c r="DW2" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="DX2" s="20" t="s">
+      <c r="DX2" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="DY2" s="20" t="s">
+      <c r="DY2" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="DZ2" s="20" t="s">
+      <c r="DZ2" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="EA2" s="20" t="s">
+      <c r="EA2" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="EB2" s="20" t="s">
+      <c r="EB2" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="EC2" s="20" t="s">
+      <c r="EC2" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="ED2" s="20" t="s">
+      <c r="ED2" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="EE2" s="20" t="s">
+      <c r="EE2" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="EF2" s="20" t="s">
+      <c r="EF2" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="EG2" s="20" t="s">
+      <c r="EG2" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="EH2" s="20" t="s">
+      <c r="EH2" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="EI2" s="20" t="s">
+      <c r="EI2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="EJ2" s="20" t="s">
+      <c r="EJ2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="EK2" s="20" t="s">
+      <c r="EK2" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="EL2" s="20" t="s">
+      <c r="EL2" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="EM2" s="20" t="s">
+      <c r="EM2" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="EN2" s="20" t="s">
+      <c r="EN2" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="EO2" s="20" t="s">
+      <c r="EO2" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="EP2" s="20" t="s">
+      <c r="EP2" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="EQ2" s="20" t="s">
+      <c r="EQ2" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="ER2" s="20" t="s">
+      <c r="ER2" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="ES2" s="20" t="s">
+      <c r="ES2" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="ET2" s="20" t="s">
+      <c r="ET2" s="22" t="s">
         <v>354</v>
       </c>
     </row>
@@ -56551,195 +56580,195 @@
     <col min="64" max="64" width="24.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="24" customFormat="1" spans="1:64">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" s="26" customFormat="1" spans="1:64">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AR2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AS2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AV2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AW2" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AX2" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="BB2" s="20" t="s">
+      <c r="BB2" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BL2" s="22" t="s">
         <v>240</v>
       </c>
     </row>
@@ -62270,12 +62299,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM463"/>
+  <dimension ref="A1:AN463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AN311" sqref="AN311"/>
+      <selection pane="bottomLeft" activeCell="T328" sqref="T328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -62311,37 +62340,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="23" t="s">
         <v>2103</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2104</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>2105</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>2106</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="2" ht="135" spans="2:7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>2108</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>2109</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>2110</v>
       </c>
     </row>
@@ -62384,7 +62413,7 @@
       <c r="B7" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>2112</v>
       </c>
     </row>
@@ -62399,13 +62428,13 @@
       </c>
     </row>
     <row r="11" ht="225" spans="2:5">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -62605,10 +62634,10 @@
       <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="21" t="s">
         <v>2114</v>
       </c>
     </row>
@@ -62720,7 +62749,7 @@
       <c r="C58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="21" t="s">
         <v>2115</v>
       </c>
     </row>
@@ -62855,10 +62884,10 @@
       <c r="B78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="21" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -62934,10 +62963,10 @@
       <c r="B90" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="21" t="s">
         <v>2117</v>
       </c>
     </row>
@@ -63050,10 +63079,10 @@
       <c r="B108" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="21" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -63273,7 +63302,7 @@
       <c r="B138" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="26" t="s">
         <v>238</v>
       </c>
     </row>
@@ -63419,16 +63448,16 @@
       </c>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J159" s="20" t="s">
+      <c r="J159" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="K159" s="20" t="s">
+      <c r="K159" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -64094,13 +64123,13 @@
       </c>
     </row>
     <row r="192" spans="2:11">
-      <c r="B192" s="20" t="s">
+      <c r="B192" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="H192" s="20" t="s">
+      <c r="H192" s="22" t="s">
         <v>119</v>
       </c>
       <c r="K192" s="1" t="s">
@@ -64594,7 +64623,7 @@
       </c>
     </row>
     <row r="226" spans="3:8">
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="27" t="s">
         <v>1895</v>
       </c>
       <c r="H226" s="1" t="s">
@@ -64602,7 +64631,7 @@
       </c>
     </row>
     <row r="227" spans="3:8">
-      <c r="C227" s="25" t="s">
+      <c r="C227" s="27" t="s">
         <v>991</v>
       </c>
       <c r="H227" s="1" t="s">
@@ -64610,7 +64639,7 @@
       </c>
     </row>
     <row r="228" spans="3:8">
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="27" t="s">
         <v>1904</v>
       </c>
       <c r="H228" s="1" t="s">
@@ -64618,7 +64647,7 @@
       </c>
     </row>
     <row r="229" spans="3:8">
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="27" t="s">
         <v>1909</v>
       </c>
       <c r="H229" s="1" t="s">
@@ -64626,7 +64655,7 @@
       </c>
     </row>
     <row r="230" spans="3:8">
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="27" t="s">
         <v>1914</v>
       </c>
       <c r="H230" s="1" t="s">
@@ -64634,13 +64663,13 @@
       </c>
     </row>
     <row r="231" spans="3:8">
-      <c r="C231" s="25" t="s">
+      <c r="C231" s="27" t="s">
         <v>1918</v>
       </c>
-      <c r="F231" s="20" t="s">
+      <c r="F231" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G231" s="20" t="s">
+      <c r="G231" s="22" t="s">
         <v>243</v>
       </c>
       <c r="H231" s="1" t="s">
@@ -64648,7 +64677,7 @@
       </c>
     </row>
     <row r="232" spans="3:8">
-      <c r="C232" s="25" t="s">
+      <c r="C232" s="27" t="s">
         <v>1891</v>
       </c>
       <c r="F232" s="1" t="s">
@@ -64662,7 +64691,7 @@
       </c>
     </row>
     <row r="233" spans="3:8">
-      <c r="C233" s="25" t="s">
+      <c r="C233" s="27" t="s">
         <v>1596</v>
       </c>
       <c r="F233" s="1" t="s">
@@ -64676,7 +64705,7 @@
       </c>
     </row>
     <row r="234" spans="3:8">
-      <c r="C234" s="25" t="s">
+      <c r="C234" s="27" t="s">
         <v>1927</v>
       </c>
       <c r="F234" s="1" t="s">
@@ -64690,7 +64719,7 @@
       </c>
     </row>
     <row r="235" spans="3:8">
-      <c r="C235" s="25" t="s">
+      <c r="C235" s="27" t="s">
         <v>1892</v>
       </c>
       <c r="F235" s="1" t="s">
@@ -64704,7 +64733,7 @@
       </c>
     </row>
     <row r="236" spans="3:8">
-      <c r="C236" s="25" t="s">
+      <c r="C236" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -64715,7 +64744,7 @@
       </c>
     </row>
     <row r="237" spans="3:8">
-      <c r="C237" s="25" t="s">
+      <c r="C237" s="27" t="s">
         <v>1404</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -64726,7 +64755,7 @@
       </c>
     </row>
     <row r="238" spans="3:8">
-      <c r="C238" s="25" t="s">
+      <c r="C238" s="27" t="s">
         <v>1772</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -64737,7 +64766,7 @@
       </c>
     </row>
     <row r="239" spans="3:8">
-      <c r="C239" s="25" t="s">
+      <c r="C239" s="27" t="s">
         <v>1140</v>
       </c>
       <c r="G239" s="1" t="s">
@@ -64748,7 +64777,7 @@
       </c>
     </row>
     <row r="240" spans="3:8">
-      <c r="C240" s="25" t="s">
+      <c r="C240" s="27" t="s">
         <v>1199</v>
       </c>
       <c r="G240" s="1" t="s">
@@ -64759,7 +64788,7 @@
       </c>
     </row>
     <row r="241" spans="3:8">
-      <c r="C241" s="25" t="s">
+      <c r="C241" s="27" t="s">
         <v>1240</v>
       </c>
       <c r="G241" s="1" t="s">
@@ -64770,7 +64799,7 @@
       </c>
     </row>
     <row r="242" spans="3:8">
-      <c r="C242" s="25" t="s">
+      <c r="C242" s="27" t="s">
         <v>1289</v>
       </c>
       <c r="G242" s="1" t="s">
@@ -64781,7 +64810,7 @@
       </c>
     </row>
     <row r="243" spans="3:8">
-      <c r="C243" s="25" t="s">
+      <c r="C243" s="27" t="s">
         <v>1327</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -64789,7 +64818,7 @@
       </c>
     </row>
     <row r="244" spans="3:8">
-      <c r="C244" s="25" t="s">
+      <c r="C244" s="27" t="s">
         <v>1359</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -64797,7 +64826,7 @@
       </c>
     </row>
     <row r="245" spans="3:8">
-      <c r="C245" s="25" t="s">
+      <c r="C245" s="27" t="s">
         <v>1486</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -64805,7 +64834,7 @@
       </c>
     </row>
     <row r="246" spans="3:8">
-      <c r="C246" s="25" t="s">
+      <c r="C246" s="27" t="s">
         <v>1513</v>
       </c>
       <c r="H246" s="1" t="s">
@@ -64813,13 +64842,13 @@
       </c>
     </row>
     <row r="247" spans="3:8">
-      <c r="C247" s="25" t="s">
+      <c r="C247" s="27" t="s">
         <v>1538</v>
       </c>
-      <c r="E247" s="20" t="s">
+      <c r="E247" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G247" s="20" t="s">
+      <c r="G247" s="22" t="s">
         <v>155</v>
       </c>
       <c r="H247" s="1" t="s">
@@ -65088,7 +65117,7 @@
       <c r="E266" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G266" s="20" t="s">
+      <c r="G266" s="22" t="s">
         <v>144</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -65355,52 +65384,52 @@
       <c r="G287" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="I287" s="20" t="s">
+      <c r="I287" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="J287" s="20" t="s">
+      <c r="J287" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="K287" s="20" t="s">
+      <c r="K287" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="L287" s="20" t="s">
+      <c r="L287" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="V287" s="20" t="s">
+      <c r="V287" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="X287" s="20" t="s">
+      <c r="X287" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="Y287" s="20" t="s">
+      <c r="Y287" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="Z287" s="20" t="s">
+      <c r="Z287" s="22" t="s">
         <v>298</v>
       </c>
       <c r="AA287" t="s">
         <v>2125</v>
       </c>
-      <c r="AE287" s="20" t="s">
+      <c r="AE287" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="AF287" s="20" t="s">
+      <c r="AF287" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="AI287" s="20" t="s">
+      <c r="AI287" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AJ287" s="20" t="s">
+      <c r="AJ287" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AK287" s="20" t="s">
+      <c r="AK287" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AL287" s="20" t="s">
+      <c r="AL287" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AM287" s="20" t="s">
+      <c r="AM287" s="22" t="s">
         <v>258</v>
       </c>
     </row>
@@ -65457,7 +65486,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="289" spans="3:39">
+    <row r="289" spans="3:40">
       <c r="C289" s="1" t="s">
         <v>761</v>
       </c>
@@ -65520,6 +65549,9 @@
       </c>
       <c r="AM289" s="1" t="s">
         <v>402</v>
+      </c>
+      <c r="AN289" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="290" spans="3:39">
@@ -65559,6 +65591,9 @@
       <c r="Z290" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="AB290" t="s">
+        <v>2126</v>
+      </c>
       <c r="AE290" s="1" t="s">
         <v>1000</v>
       </c>
@@ -65573,9 +65608,6 @@
       </c>
       <c r="AK290" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="AL290" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="AM290" s="1" t="s">
         <v>466</v>
@@ -65607,7 +65639,7 @@
         <v>544</v>
       </c>
       <c r="U291" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="V291" s="1" t="s">
         <v>917</v>
@@ -65657,7 +65689,7 @@
         <v>594</v>
       </c>
       <c r="U292" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="V292" s="1" t="s">
         <v>979</v>
@@ -65713,7 +65745,7 @@
         <v>635</v>
       </c>
       <c r="U293" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="V293" s="1" t="s">
         <v>1035</v>
@@ -65775,7 +65807,7 @@
         <v>585</v>
       </c>
       <c r="U294" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="V294" s="1" t="s">
         <v>967</v>
@@ -65834,7 +65866,7 @@
         <v>693</v>
       </c>
       <c r="U295" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="V295" s="1" t="s">
         <v>933</v>
@@ -65896,7 +65928,7 @@
         <v>716</v>
       </c>
       <c r="U296" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="V296" s="1" t="s">
         <v>916</v>
@@ -66000,7 +66032,7 @@
         <v>753</v>
       </c>
       <c r="U298" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="V298" s="1" t="s">
         <v>1157</v>
@@ -66037,10 +66069,10 @@
       </c>
     </row>
     <row r="299" spans="2:39">
-      <c r="B299" s="20" t="s">
+      <c r="B299" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C299" s="20" t="s">
+      <c r="C299" s="22" t="s">
         <v>191</v>
       </c>
       <c r="J299" s="1" t="s">
@@ -66055,9 +66087,9 @@
       <c r="M299" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="N299" s="17"/>
+      <c r="N299" s="19"/>
       <c r="U299" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="V299" s="1" t="s">
         <v>1225</v>
@@ -66194,7 +66226,7 @@
         <v>805</v>
       </c>
       <c r="U302" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="V302" s="1" t="s">
         <v>1476</v>
@@ -66468,7 +66500,7 @@
         <v>769</v>
       </c>
       <c r="U308" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="V308" s="1" t="s">
         <v>1600</v>
@@ -66506,7 +66538,7 @@
         <v>1642</v>
       </c>
       <c r="U309" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="V309" s="1" t="s">
         <v>1611</v>
@@ -66550,7 +66582,7 @@
         <v>592</v>
       </c>
       <c r="U310" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="V310" s="1" t="s">
         <v>1625</v>
@@ -66591,7 +66623,7 @@
         <v>590</v>
       </c>
       <c r="U311" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="V311" s="1" t="s">
         <v>1639</v>
@@ -66969,11 +67001,11 @@
       <c r="X326" s="1"/>
     </row>
     <row r="327" spans="3:24">
-      <c r="C327" s="20" t="s">
+      <c r="C327" s="22" t="s">
         <v>185</v>
       </c>
       <c r="U327" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="V327" s="1" t="s">
         <v>1796</v>
@@ -67063,7 +67095,7 @@
     </row>
     <row r="336" spans="21:24">
       <c r="U336" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="V336" s="1" t="s">
         <v>1856</v>
@@ -67083,7 +67115,7 @@
     </row>
     <row r="339" customHeight="1" spans="21:24">
       <c r="U339" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="V339" s="1" t="s">
         <v>1870</v>
@@ -67092,10 +67124,10 @@
       <c r="X339" s="1"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="20" t="s">
+      <c r="B342" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C342" s="20" t="s">
+      <c r="C342" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -67168,8 +67200,8 @@
       <c r="F348" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G348" s="19" t="s">
-        <v>2142</v>
+      <c r="G348" s="21" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="349" spans="2:7">
@@ -67192,10 +67224,10 @@
       </c>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="20" t="s">
+      <c r="B352" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="C352" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -67260,8 +67292,8 @@
       <c r="F357" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G357" s="19" t="s">
-        <v>2142</v>
+      <c r="G357" s="21" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="358" spans="2:7">
@@ -67288,10 +67320,10 @@
       <c r="F359" s="1"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="20" t="s">
+      <c r="B364" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C364" s="20" t="s">
+      <c r="C364" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -67396,10 +67428,10 @@
       <c r="F373" s="1"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="20" t="s">
+      <c r="B378" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C378" s="20" t="s">
+      <c r="C378" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -67467,8 +67499,8 @@
       <c r="F384" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G384" s="18" t="s">
-        <v>2142</v>
+      <c r="G384" s="20" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="385" spans="2:6">
@@ -67484,10 +67516,10 @@
       <c r="F386" s="1"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="20" t="s">
+      <c r="B389" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C389" s="20" t="s">
+      <c r="C389" s="22" t="s">
         <v>47</v>
       </c>
     </row>
@@ -67558,8 +67590,8 @@
       <c r="F395" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G395" s="19" t="s">
-        <v>2142</v>
+      <c r="G395" s="21" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="396" spans="2:6">
@@ -67595,7 +67627,7 @@
   <sheetPr/>
   <dimension ref="B1:L441"/>
   <sheetViews>
-    <sheetView topLeftCell="G410" workbookViewId="0">
+    <sheetView topLeftCell="F410" workbookViewId="0">
       <selection activeCell="H440" sqref="H440"/>
     </sheetView>
   </sheetViews>
@@ -67615,31 +67647,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="2:8">
-      <c r="B1" s="15" t="s">
-        <v>2143</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>2144</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2145</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>2146</v>
       </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>2147</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="2:7">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>175</v>
       </c>
     </row>
@@ -67727,7 +67759,7 @@
         <v>713</v>
       </c>
       <c r="C11" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G11" t="s">
         <v>1254</v>
@@ -67883,13 +67915,13 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:7">
-      <c r="B31" s="16" t="s">
-        <v>2148</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="18" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="21" t="s">
         <v>199</v>
       </c>
       <c r="G31" t="s">
@@ -67923,7 +67955,7 @@
         <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="G34" t="s">
         <v>1275</v>
@@ -67999,11 +68031,11 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="19" t="s">
         <v>320</v>
       </c>
       <c r="C44" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G44" t="s">
         <v>1804</v>
@@ -68113,13 +68145,13 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:7">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="19" t="s">
         <v>68</v>
       </c>
       <c r="G59" t="s">
@@ -68145,7 +68177,7 @@
         <v>405</v>
       </c>
       <c r="C61" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="F61" t="s">
         <v>990</v>
@@ -68236,7 +68268,7 @@
         <v>732</v>
       </c>
       <c r="C69" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="F69" t="s">
         <v>1425</v>
@@ -68273,16 +68305,16 @@
     <row r="74" customHeight="1"/>
     <row r="75" customHeight="1"/>
     <row r="76" customHeight="1" spans="2:6">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E76" s="19" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F76" s="17" t="s">
+      <c r="E76" s="21" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>194</v>
       </c>
     </row>
@@ -68438,34 +68470,34 @@
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:6">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="17"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="19"/>
     </row>
     <row r="95" customHeight="1" spans="2:6">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="17"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="19"/>
     </row>
     <row r="96" customHeight="1" spans="2:6">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="17"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="19"/>
     </row>
     <row r="97" customHeight="1" spans="2:7">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E97" s="19" t="s">
-        <v>2154</v>
-      </c>
-      <c r="F97" s="17" t="s">
+      <c r="E97" s="21" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>129</v>
       </c>
       <c r="G97" t="s">
@@ -68491,7 +68523,7 @@
         <v>405</v>
       </c>
       <c r="C99" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="F99" t="s">
         <v>1152</v>
@@ -68609,34 +68641,34 @@
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:6">
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="17"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="19"/>
     </row>
     <row r="113" customHeight="1" spans="2:6">
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="17"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="19"/>
     </row>
     <row r="114" customHeight="1" spans="2:6">
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="17"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="19"/>
     </row>
     <row r="115" customHeight="1" spans="2:6">
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="19" t="s">
-        <v>2155</v>
-      </c>
-      <c r="F115" s="17" t="s">
+      <c r="E115" s="21" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F115" s="19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -68659,7 +68691,7 @@
         <v>1332</v>
       </c>
       <c r="F117" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:6">
@@ -68678,7 +68710,7 @@
         <v>497</v>
       </c>
       <c r="C119" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="F119" t="s">
         <v>977</v>
@@ -68779,16 +68811,16 @@
     <row r="130" customHeight="1"/>
     <row r="131" customHeight="1"/>
     <row r="132" customHeight="1" spans="2:6">
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E132" s="19" t="s">
-        <v>2158</v>
-      </c>
-      <c r="F132" s="17" t="s">
+      <c r="E132" s="21" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F132" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -68914,19 +68946,19 @@
     <row r="148" customHeight="1"/>
     <row r="149" customHeight="1"/>
     <row r="150" customHeight="1" spans="2:9">
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H150" s="20" t="s">
+      <c r="H150" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I150" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -69120,10 +69152,10 @@
       <c r="F166" t="s">
         <v>1491</v>
       </c>
-      <c r="H166" s="20" t="s">
+      <c r="H166" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I166" s="20" t="s">
+      <c r="I166" s="22" t="s">
         <v>74</v>
       </c>
     </row>
@@ -69258,10 +69290,10 @@
       <c r="F181" t="s">
         <v>1047</v>
       </c>
-      <c r="H181" s="20" t="s">
+      <c r="H181" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -69348,8 +69380,8 @@
       <c r="K187" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L187" s="19" t="s">
-        <v>2159</v>
+      <c r="L187" s="21" t="s">
+        <v>2160</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="8:9">
@@ -69361,13 +69393,13 @@
       </c>
     </row>
     <row r="189" customHeight="1" spans="2:9">
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F189" s="17" t="s">
+      <c r="F189" s="19" t="s">
         <v>239</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -69396,8 +69428,8 @@
       <c r="J190" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="L190" s="19" t="s">
-        <v>2160</v>
+      <c r="L190" s="21" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="2:9">
@@ -69439,7 +69471,7 @@
         <v>408</v>
       </c>
       <c r="C193" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F193" t="s">
         <v>1038</v>
@@ -69464,7 +69496,7 @@
         <v>497</v>
       </c>
       <c r="C195" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="F195" t="s">
         <v>1164</v>
@@ -69518,10 +69550,10 @@
       </c>
     </row>
     <row r="200" customHeight="1" spans="2:8">
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="19" t="s">
         <v>239</v>
       </c>
       <c r="F200" t="s">
@@ -69619,10 +69651,10 @@
       </c>
     </row>
     <row r="210" customHeight="1" spans="2:6">
-      <c r="B210" s="17" t="s">
+      <c r="B210" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="19" t="s">
         <v>239</v>
       </c>
       <c r="F210" t="s">
@@ -69680,7 +69712,7 @@
     </row>
     <row r="216" customHeight="1" spans="2:6">
       <c r="B216" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="F216" t="s">
         <v>891</v>
@@ -69716,10 +69748,10 @@
       </c>
     </row>
     <row r="221" customHeight="1" spans="2:6">
-      <c r="B221" s="17" t="s">
+      <c r="B221" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="19" t="s">
         <v>239</v>
       </c>
       <c r="F221" t="s">
@@ -69839,10 +69871,10 @@
       <c r="F236" t="s">
         <v>1842</v>
       </c>
-      <c r="H236" s="20" t="s">
+      <c r="H236" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I236" s="20" t="s">
+      <c r="I236" s="22" t="s">
         <v>184</v>
       </c>
     </row>
@@ -69888,13 +69920,13 @@
       </c>
     </row>
     <row r="241" customHeight="1" spans="2:11">
-      <c r="B241" s="17" t="s">
+      <c r="B241" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C241" s="17" t="s">
+      <c r="C241" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F241" s="17" t="s">
+      <c r="F241" s="19" t="s">
         <v>222</v>
       </c>
       <c r="H241" s="1" t="s">
@@ -69932,7 +69964,7 @@
         <v>408</v>
       </c>
       <c r="C243" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F243" t="s">
         <v>907</v>
@@ -70071,7 +70103,7 @@
         <v>497</v>
       </c>
       <c r="C251" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="F251" t="s">
         <v>1082</v>
@@ -70200,13 +70232,13 @@
       </c>
     </row>
     <row r="265" customHeight="1" spans="2:8">
-      <c r="B265" s="17" t="s">
+      <c r="B265" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F265" s="17" t="s">
+      <c r="F265" s="19" t="s">
         <v>218</v>
       </c>
       <c r="H265" s="1" t="s">
@@ -70232,7 +70264,7 @@
         <v>408</v>
       </c>
       <c r="C267" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F267" t="s">
         <v>912</v>
@@ -70271,7 +70303,7 @@
         <v>437</v>
       </c>
       <c r="C270" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F270" t="s">
         <v>911</v>
@@ -70377,10 +70409,10 @@
       </c>
     </row>
     <row r="280" customHeight="1" spans="2:8">
-      <c r="B280" s="17" t="s">
+      <c r="B280" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C280" s="17" t="s">
+      <c r="C280" s="19" t="s">
         <v>218</v>
       </c>
       <c r="F280" t="s">
@@ -70409,7 +70441,7 @@
         <v>408</v>
       </c>
       <c r="C282" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F282" t="s">
         <v>1524</v>
@@ -70448,7 +70480,7 @@
         <v>437</v>
       </c>
       <c r="C285" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F285" t="s">
         <v>1275</v>
@@ -70554,10 +70586,10 @@
       </c>
     </row>
     <row r="295" customHeight="1" spans="2:8">
-      <c r="B295" s="17" t="s">
+      <c r="B295" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C295" s="19" t="s">
         <v>218</v>
       </c>
       <c r="F295" t="s">
@@ -70586,7 +70618,7 @@
         <v>408</v>
       </c>
       <c r="C297" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F297" t="s">
         <v>1720</v>
@@ -70625,7 +70657,7 @@
         <v>437</v>
       </c>
       <c r="C300" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F300" t="s">
         <v>1162</v>
@@ -70696,7 +70728,7 @@
       <c r="B306" t="s">
         <v>448</v>
       </c>
-      <c r="H306" s="20" t="s">
+      <c r="H306" s="22" t="s">
         <v>178</v>
       </c>
     </row>
@@ -70716,10 +70748,10 @@
       </c>
     </row>
     <row r="310" spans="2:8">
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="19" t="s">
         <v>218</v>
       </c>
       <c r="H310" s="1" t="s">
@@ -70742,14 +70774,14 @@
         <v>408</v>
       </c>
       <c r="C312" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="313" spans="2:8">
       <c r="B313" t="s">
         <v>474</v>
       </c>
-      <c r="H313" s="20" t="s">
+      <c r="H313" s="22" t="s">
         <v>185</v>
       </c>
     </row>
@@ -70769,7 +70801,7 @@
         <v>437</v>
       </c>
       <c r="C315" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>897</v>
@@ -70830,7 +70862,7 @@
       </c>
     </row>
     <row r="323" spans="8:8">
-      <c r="H323" s="20" t="s">
+      <c r="H323" s="22" t="s">
         <v>191</v>
       </c>
     </row>
@@ -70849,10 +70881,10 @@
       </c>
     </row>
     <row r="325" spans="2:9">
-      <c r="B325" s="17" t="s">
+      <c r="B325" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="19" t="s">
         <v>218</v>
       </c>
       <c r="H325" s="1" t="s">
@@ -70887,7 +70919,7 @@
         <v>408</v>
       </c>
       <c r="C327" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>977</v>
@@ -70932,7 +70964,7 @@
         <v>437</v>
       </c>
       <c r="C330" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>927</v>
@@ -71046,10 +71078,10 @@
       </c>
     </row>
     <row r="350" spans="8:9">
-      <c r="H350" s="20" t="s">
+      <c r="H350" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="I350" s="20" t="s">
+      <c r="I350" s="22" t="s">
         <v>312</v>
       </c>
     </row>
@@ -71175,10 +71207,10 @@
       </c>
     </row>
     <row r="369" spans="8:9">
-      <c r="H369" s="20" t="s">
+      <c r="H369" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="I369" s="20" t="s">
+      <c r="I369" s="22" t="s">
         <v>314</v>
       </c>
     </row>
@@ -71262,10 +71294,10 @@
       </c>
     </row>
     <row r="383" spans="8:9">
-      <c r="H383" s="20" t="s">
+      <c r="H383" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I383" s="20" t="s">
+      <c r="I383" s="22" t="s">
         <v>316</v>
       </c>
     </row>
@@ -71368,10 +71400,10 @@
       </c>
     </row>
     <row r="401" spans="8:9">
-      <c r="H401" s="20" t="s">
+      <c r="H401" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I401" s="20" t="s">
+      <c r="I401" s="22" t="s">
         <v>318</v>
       </c>
     </row>
@@ -71490,10 +71522,10 @@
       </c>
     </row>
     <row r="421" spans="8:9">
-      <c r="H421" s="20" t="s">
+      <c r="H421" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="I421" s="20" t="s">
+      <c r="I421" s="22" t="s">
         <v>320</v>
       </c>
     </row>
@@ -71640,22 +71672,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
   </sheetData>
@@ -71667,12 +71699,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N72" sqref="N72:N73"/>
+      <selection pane="topRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -71691,7 +71723,9 @@
     <col min="12" max="12" width="16" style="6" customWidth="1"/>
     <col min="13" max="13" width="41.4285714285714" style="1" customWidth="1"/>
     <col min="14" max="14" width="29.8571428571429" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="1"/>
+    <col min="15" max="15" width="24.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:14">
@@ -71700,40 +71734,40 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2176</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>2177</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>2178</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>2179</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:14">
@@ -71741,7 +71775,7 @@
         <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="4" t="s">
@@ -71766,7 +71800,9 @@
       <c r="M2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="10"/>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -71780,7 +71816,9 @@
       <c r="M3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="1" t="s">
@@ -71807,9 +71845,11 @@
       <c r="M4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="N4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>203</v>
       </c>
@@ -71824,9 +71864,20 @@
       <c r="M5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="N5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
@@ -71843,9 +71894,11 @@
       <c r="M6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:14">
+      <c r="P6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>210</v>
       </c>
@@ -71859,9 +71912,17 @@
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="M7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>213</v>
       </c>
@@ -71870,9 +71931,11 @@
       <c r="H8" s="6"/>
       <c r="J8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="4:14">
+      <c r="P8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="4:16">
       <c r="D9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
@@ -71883,9 +71946,11 @@
       </c>
       <c r="J9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
+      <c r="P9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>195</v>
       </c>
@@ -71897,23 +71962,26 @@
       <c r="M10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="4:14">
+      <c r="P10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:16">
       <c r="D11" s="6"/>
       <c r="F11" s="7"/>
       <c r="H11" s="6"/>
       <c r="J11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="4:14">
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:12">
       <c r="D12" s="6"/>
       <c r="F12" s="7"/>
       <c r="H12" s="6"/>
       <c r="J12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="N12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:14">
       <c r="D13" s="6"/>
@@ -71931,9 +71999,9 @@
       <c r="L14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" s="4" customFormat="1" spans="2:14">
+    <row r="15" s="4" customFormat="1" spans="2:13">
       <c r="B15" s="4" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>59</v>
@@ -71966,11 +72034,8 @@
       <c r="M15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:14">
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:13">
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
@@ -71996,11 +72061,8 @@
       <c r="M16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:14">
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:13">
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -72019,11 +72081,8 @@
       <c r="M17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:13">
       <c r="D18" s="6"/>
       <c r="E18" s="1" t="s">
         <v>243</v>
@@ -72044,11 +72103,8 @@
       <c r="M18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="4:13">
       <c r="D19" s="6"/>
       <c r="F19" s="7"/>
       <c r="H19" s="12"/>
@@ -72062,9 +72118,6 @@
       <c r="M19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:14">
       <c r="C20" s="1" t="s">
@@ -72092,10 +72145,10 @@
         <v>138</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="3:14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:12">
       <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
@@ -72113,9 +72166,6 @@
         <v>146</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="N21" s="13" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="4:13">
       <c r="D22" s="6"/>
@@ -72138,7 +72188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="4:14">
+    <row r="23" s="1" customFormat="1" spans="4:12">
       <c r="D23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
@@ -72152,11 +72202,8 @@
       </c>
       <c r="J23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="N23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="3:14">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:13">
       <c r="C24" s="1" t="s">
         <v>188</v>
       </c>
@@ -72178,11 +72225,8 @@
       <c r="M24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:14">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:13">
       <c r="C25" s="1" t="s">
         <v>192</v>
       </c>
@@ -72203,11 +72247,8 @@
       <c r="M25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="4:12">
       <c r="D26" s="6"/>
       <c r="E26" s="1" t="s">
         <v>140</v>
@@ -72221,11 +72262,8 @@
       <c r="H26" s="6"/>
       <c r="J26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="N26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="4:13">
       <c r="D27" s="6"/>
       <c r="E27" s="1" t="s">
         <v>148</v>
@@ -72247,11 +72285,8 @@
       <c r="M27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="4:12">
       <c r="D28" s="6"/>
       <c r="E28" s="1" t="s">
         <v>151</v>
@@ -72270,11 +72305,8 @@
         <v>293</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="N28" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="29" s="1" customFormat="1" spans="4:12">
       <c r="D29" s="6"/>
       <c r="F29" s="7"/>
       <c r="H29" s="6"/>
@@ -72285,14 +72317,8 @@
         <v>279</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="30" s="1" customFormat="1" spans="4:13">
       <c r="D30" s="6"/>
       <c r="E30" s="1" t="s">
         <v>165</v>
@@ -72311,11 +72337,8 @@
       <c r="M30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="31" s="1" customFormat="1" spans="4:13">
       <c r="D31" s="6"/>
       <c r="E31" s="1" t="s">
         <v>169</v>
@@ -72332,11 +72355,8 @@
       <c r="M31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="32" s="1" customFormat="1" spans="4:13">
       <c r="D32" s="6"/>
       <c r="E32" s="1" t="s">
         <v>173</v>
@@ -72353,11 +72373,8 @@
       <c r="M32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="33" s="1" customFormat="1" spans="4:17">
       <c r="D33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
@@ -72371,8 +72388,17 @@
       <c r="M33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N33" s="13" t="s">
-        <v>89</v>
+      <c r="N33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="4:14">
@@ -72408,11 +72434,11 @@
       <c r="M35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N35" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="4:14">
+      <c r="N35" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="4:16">
       <c r="D36" s="6"/>
       <c r="F36" s="7"/>
       <c r="H36" s="6"/>
@@ -72425,10 +72451,16 @@
         <v>101</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="4:14">
+        <v>35</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="4:13">
       <c r="D37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="1" t="s">
@@ -72445,11 +72477,8 @@
       <c r="M37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N37" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:13">
       <c r="D38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="1" t="s">
@@ -72464,11 +72493,8 @@
       <c r="M38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="39" s="1" customFormat="1" spans="4:15">
       <c r="D39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="5" t="s">
@@ -72477,11 +72503,11 @@
       <c r="H39" s="6"/>
       <c r="J39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="N39" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="4:14">
+      <c r="O39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:15">
       <c r="D40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
@@ -72493,21 +72519,21 @@
       </c>
       <c r="J40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="N40" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="4:14">
+      <c r="O40" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="4:15">
       <c r="D41" s="6"/>
       <c r="F41" s="7"/>
       <c r="H41" s="6"/>
       <c r="J41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="N41" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="4:14">
+      <c r="O41" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="4:15">
       <c r="D42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="1" t="s">
@@ -72518,11 +72544,11 @@
       </c>
       <c r="J42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="N42" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="4:14">
+      <c r="O42" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="4:15">
       <c r="D43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
@@ -72533,11 +72559,11 @@
       </c>
       <c r="J43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="N43" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="4:14">
+      <c r="O43" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="4:15">
       <c r="D44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="1" t="s">
@@ -72548,11 +72574,11 @@
       </c>
       <c r="J44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="N44" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="4:12">
+      <c r="O44" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="4:15">
       <c r="D45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="1" t="s">
@@ -72563,8 +72589,11 @@
       </c>
       <c r="J45" s="6"/>
       <c r="L45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="4:14">
+      <c r="O45" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="4:15">
       <c r="D46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="1" t="s">
@@ -72573,16 +72602,16 @@
       <c r="H46" s="6"/>
       <c r="J46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="N46" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14">
-      <c r="N47" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="4:14">
+      <c r="O46" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="4:15">
       <c r="D48" s="6"/>
       <c r="F48" s="7"/>
       <c r="G48" s="5" t="s">
@@ -72591,11 +72620,11 @@
       <c r="H48" s="6"/>
       <c r="J48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="N48" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="4:14">
+      <c r="O48" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="4:15">
       <c r="D49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="1" t="s">
@@ -72606,28 +72635,28 @@
       </c>
       <c r="J49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="N49" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="2:14">
+      <c r="O49" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="2:15">
       <c r="B53" s="4" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>12</v>
@@ -72643,11 +72672,11 @@
         <v>335</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="N53" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="4:12">
+      <c r="O53" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="4:15">
       <c r="D54" s="6"/>
       <c r="E54" s="1" t="s">
         <v>36</v>
@@ -72661,8 +72690,11 @@
       <c r="H54" s="6"/>
       <c r="J54" s="6"/>
       <c r="L54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="3:14">
+      <c r="O54" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="3:15">
       <c r="C55" s="1" t="s">
         <v>221</v>
       </c>
@@ -72674,11 +72706,11 @@
       <c r="H55" s="6"/>
       <c r="J55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="N55" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="3:14">
+      <c r="O55" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="3:15">
       <c r="C56" s="1" t="s">
         <v>341</v>
       </c>
@@ -72690,11 +72722,11 @@
       <c r="H56" s="6"/>
       <c r="J56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="N56" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="3:14">
+      <c r="O56" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="3:15">
       <c r="C57" s="1" t="s">
         <v>217</v>
       </c>
@@ -72706,8 +72738,11 @@
       <c r="N57" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="3:14">
+      <c r="O57" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="3:15">
       <c r="C58" s="1" t="s">
         <v>225</v>
       </c>
@@ -72719,28 +72754,37 @@
       <c r="N58" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="59" spans="14:14">
+      <c r="O58" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="14:15">
       <c r="N59" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="14:14">
+      <c r="O59" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="14:15">
       <c r="N60" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="4:14">
+      <c r="O60" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="4:15">
       <c r="D61" s="6"/>
       <c r="F61" s="7"/>
       <c r="H61" s="6"/>
       <c r="J61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="N61" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:12">
+      <c r="O61" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:15">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
@@ -72748,25 +72792,34 @@
       <c r="H62" s="6"/>
       <c r="J62" s="6"/>
       <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="14:14">
+      <c r="O62" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="14:15">
       <c r="N63" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
+        <v>202</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="14:15">
       <c r="N64" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" s="4" customFormat="1" spans="2:14">
+        <v>205</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" s="4" customFormat="1" spans="2:12">
       <c r="B66" s="4" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>170</v>
@@ -72779,11 +72832,8 @@
       </c>
       <c r="J66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="N66" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="3:14">
+    </row>
+    <row r="67" s="1" customFormat="1" spans="3:12">
       <c r="C67" s="1" t="s">
         <v>174</v>
       </c>
@@ -72795,11 +72845,8 @@
       </c>
       <c r="J67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="N67" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="3:14">
+    </row>
+    <row r="68" s="1" customFormat="1" spans="3:12">
       <c r="C68" s="1" t="s">
         <v>56</v>
       </c>
@@ -72811,11 +72858,8 @@
       </c>
       <c r="J68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="N68" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="69" s="1" customFormat="1" spans="4:12">
       <c r="D69" s="6"/>
       <c r="F69" s="7"/>
       <c r="H69" s="6"/>
@@ -72824,11 +72868,8 @@
       </c>
       <c r="J69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="N69" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="70" s="1" customFormat="1" spans="4:12">
       <c r="D70" s="6"/>
       <c r="F70" s="7"/>
       <c r="H70" s="6"/>
@@ -72837,11 +72878,8 @@
       </c>
       <c r="J70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="N70" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="71" s="1" customFormat="1" spans="4:12">
       <c r="D71" s="6"/>
       <c r="F71" s="7"/>
       <c r="H71" s="6"/>
@@ -72850,11 +72888,8 @@
       </c>
       <c r="J71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="N71" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="72" s="1" customFormat="1" spans="4:12">
       <c r="D72" s="6"/>
       <c r="F72" s="7"/>
       <c r="H72" s="6"/>
@@ -72863,11 +72898,8 @@
       </c>
       <c r="J72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="N72" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="4:14">
+    </row>
+    <row r="73" s="1" customFormat="1" spans="4:12">
       <c r="D73" s="6"/>
       <c r="F73" s="7"/>
       <c r="H73" s="6"/>
@@ -72876,9 +72908,6 @@
       </c>
       <c r="J73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="N73" s="1" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="4:12">
       <c r="D74" s="6"/>
@@ -72900,16 +72929,6 @@
       <c r="J75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="14:14">
-      <c r="N76" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14">
-      <c r="N77" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TMS Database mapping.xlsx
+++ b/TMS Database mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="11580" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="lists of all tables" sheetId="1" r:id="rId1"/>
@@ -7631,7 +7631,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -8345,8 +8345,8 @@
   <sheetPr/>
   <dimension ref="A2:M151"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -10242,7 +10242,7 @@
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N64"/>
+      <selection pane="bottomLeft" activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -10979,7 +10979,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -11059,7 +11059,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="BR1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BW1" sqref="BW1:BW19"/>
+      <selection pane="bottomLeft" activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -16610,7 +16610,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2:AK30"/>
+      <selection pane="bottomLeft" activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -56511,7 +56511,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -62301,10 +62301,10 @@
   <sheetPr/>
   <dimension ref="A1:AN463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T328" sqref="T328"/>
+      <selection pane="bottomLeft" activeCell="H280" sqref="H280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -64848,9 +64848,6 @@
       <c r="E247" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G247" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="H247" s="1" t="s">
         <v>271</v>
       </c>
@@ -64865,9 +64862,6 @@
       <c r="F248" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="H248" s="1" t="s">
         <v>1219</v>
       </c>
@@ -64879,9 +64873,6 @@
       <c r="E249" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="H249" s="1" t="s">
         <v>1896</v>
       </c>
@@ -64893,9 +64884,6 @@
       <c r="E250" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="H250" s="1" t="s">
         <v>1900</v>
       </c>
@@ -64907,9 +64895,6 @@
       <c r="E251" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="G251" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="H251" s="1" t="s">
         <v>1905</v>
       </c>
@@ -64924,9 +64909,6 @@
       <c r="F252" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="H252" s="1" t="s">
         <v>1910</v>
       </c>
@@ -64938,9 +64920,6 @@
       <c r="E253" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="H253" s="1" t="s">
         <v>1915</v>
       </c>
@@ -64952,9 +64931,6 @@
       <c r="E254" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="G254" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="H254" s="1" t="s">
         <v>1919</v>
       </c>
@@ -64966,9 +64942,6 @@
       <c r="E255" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="G255" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="H255" s="1" t="s">
         <v>1872</v>
       </c>
@@ -64980,9 +64953,6 @@
       <c r="E256" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="G256" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="H256" s="1" t="s">
         <v>1933</v>
       </c>
@@ -64997,9 +64967,6 @@
       <c r="F257" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G257" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="H257" s="1" t="s">
         <v>1455</v>
       </c>
@@ -65011,9 +64978,6 @@
       <c r="E258" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="G258" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="H258" s="1" t="s">
         <v>1685</v>
       </c>
@@ -65025,9 +64989,6 @@
       <c r="E259" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="H259" s="1" t="s">
         <v>1032</v>
       </c>
@@ -65039,56 +65000,53 @@
       <c r="E260" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G260" s="1" t="s">
-        <v>771</v>
-      </c>
       <c r="H260" s="1" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="261" spans="3:8">
+    <row r="261" spans="3:10">
       <c r="C261" s="1" t="s">
         <v>1945</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="G261" s="1" t="s">
-        <v>783</v>
-      </c>
       <c r="H261" s="1" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="262" spans="3:8">
+      <c r="J261" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="262" spans="3:10">
       <c r="C262" s="1" t="s">
         <v>1946</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="G262" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="H262" s="1" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="263" spans="3:8">
+      <c r="J262" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="263" spans="3:10">
       <c r="C263" s="1" t="s">
         <v>1843</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="G263" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="H263" s="1" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="264" spans="3:8">
+      <c r="J263" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="264" spans="3:10">
       <c r="C264" s="1" t="s">
         <v>1082</v>
       </c>
@@ -65098,8 +65056,11 @@
       <c r="H264" s="1" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="265" spans="3:8">
+      <c r="J264" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="265" spans="3:10">
       <c r="C265" s="1" t="s">
         <v>271</v>
       </c>
@@ -65109,8 +65070,11 @@
       <c r="H265" s="1" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="266" spans="3:8">
+      <c r="J265" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="3:10">
       <c r="C266" s="1" t="s">
         <v>1943</v>
       </c>
@@ -65123,8 +65087,11 @@
       <c r="H266" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="267" spans="3:8">
+      <c r="J266" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="267" spans="3:10">
       <c r="C267" s="1" t="s">
         <v>1219</v>
       </c>
@@ -65137,8 +65104,11 @@
       <c r="H267" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="268" spans="3:8">
+      <c r="J267" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="268" spans="3:10">
       <c r="C268" s="1" t="s">
         <v>1801</v>
       </c>
@@ -65154,8 +65124,11 @@
       <c r="H268" s="1" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="269" spans="3:8">
+      <c r="J268" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="269" spans="3:10">
       <c r="C269" s="1" t="s">
         <v>1872</v>
       </c>
@@ -65171,8 +65144,11 @@
       <c r="H269" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="270" spans="3:8">
+      <c r="J269" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="270" spans="3:10">
       <c r="C270" s="1" t="s">
         <v>1937</v>
       </c>
@@ -65185,8 +65161,11 @@
       <c r="H270" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="271" spans="3:8">
+      <c r="J270" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="271" spans="3:10">
       <c r="C271" s="1" t="s">
         <v>1938</v>
       </c>
@@ -65199,8 +65178,11 @@
       <c r="H271" s="1" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="272" spans="3:8">
+      <c r="J271" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10">
       <c r="C272" s="1" t="s">
         <v>1658</v>
       </c>
@@ -65213,8 +65195,11 @@
       <c r="H272" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="273" spans="3:7">
+      <c r="J272" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="273" spans="3:10">
       <c r="C273" s="1" t="s">
         <v>1672</v>
       </c>
@@ -65224,8 +65209,11 @@
       <c r="G273" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="274" spans="3:7">
+      <c r="J273" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="274" spans="3:10">
       <c r="C274" s="1" t="s">
         <v>1455</v>
       </c>
@@ -65235,8 +65223,11 @@
       <c r="G274" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="275" spans="3:7">
+      <c r="J274" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="275" spans="3:10">
       <c r="C275" s="1" t="s">
         <v>1348</v>
       </c>
@@ -65246,8 +65237,11 @@
       <c r="G275" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="276" spans="3:7">
+      <c r="J275" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="276" spans="3:10">
       <c r="C276" s="1" t="s">
         <v>1685</v>
       </c>
@@ -65257,8 +65251,11 @@
       <c r="G276" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="277" spans="3:7">
+      <c r="J276" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="277" spans="3:10">
       <c r="C277" s="1" t="s">
         <v>1032</v>
       </c>
@@ -65267,6 +65264,9 @@
       </c>
       <c r="G277" s="1" t="s">
         <v>742</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="278" spans="3:7">
@@ -67628,7 +67628,7 @@
   <dimension ref="B1:L441"/>
   <sheetViews>
     <sheetView topLeftCell="F410" workbookViewId="0">
-      <selection activeCell="H440" sqref="H440"/>
+      <selection activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -71665,7 +71665,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -71704,7 +71704,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P36" sqref="P36"/>
+      <selection pane="topRight" activeCell="J261" sqref="J261:J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -71790,12 +71790,6 @@
       <c r="H2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="L2" s="10"/>
       <c r="M2" s="1" t="s">
         <v>115</v>
@@ -71825,12 +71819,6 @@
         <v>200</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>67</v>
       </c>
@@ -71854,10 +71842,6 @@
         <v>203</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="7"/>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
       <c r="L5" s="6"/>
@@ -72667,7 +72651,12 @@
         <v>209</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="I53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="K53" s="4" t="s">
         <v>335</v>
       </c>
@@ -72715,7 +72704,12 @@
         <v>341</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>281</v>
       </c>
@@ -72731,6 +72725,9 @@
         <v>217</v>
       </c>
       <c r="D57" s="6"/>
+      <c r="E57" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="H57" s="6"/>
       <c r="J57" s="6"/>
